--- a/public/excel/form1.xlsx
+++ b/public/excel/form1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C05E6-461B-471B-9FD7-51F7AE68FA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A91B45-2B0F-448C-B7E7-C1EC541429DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5413,7 +5413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5976,20 +5976,323 @@
     <xf numFmtId="179" fontId="103" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -5998,21 +6301,360 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="59" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="59" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6021,9 +6663,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="79" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6078,34 +6717,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6129,15 +6741,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="59" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6147,618 +6753,324 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="59" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="75" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="75" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="59" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6774,322 +7086,13 @@
     <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="24" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="59" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7834,8 +7837,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10974173" y="5523919"/>
-          <a:ext cx="2768699" cy="1534106"/>
+          <a:off x="10993223" y="5533444"/>
+          <a:ext cx="2800449" cy="1530931"/>
           <a:chOff x="11977473" y="5536619"/>
           <a:chExt cx="3092549" cy="1530931"/>
         </a:xfrm>
@@ -8919,17 +8922,17 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="413" t="s">
+      <c r="X1" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="413"/>
-      <c r="Z1" s="283" t="s">
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="283"/>
-      <c r="AB1" s="283"/>
-      <c r="AC1" s="283"/>
-      <c r="AD1" s="283"/>
+      <c r="AA1" s="362"/>
+      <c r="AB1" s="362"/>
+      <c r="AC1" s="362"/>
+      <c r="AD1" s="362"/>
       <c r="AE1" s="6"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1">
@@ -8965,11 +8968,11 @@
     <row r="3" spans="1:31" ht="18" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="306" t="s">
+      <c r="C3" s="384" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
+      <c r="D3" s="384"/>
+      <c r="E3" s="384"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="6"/>
@@ -9012,11 +9015,11 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="P4" s="313" t="s">
+      <c r="P4" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="347"/>
+      <c r="R4" s="347"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -9046,26 +9049,26 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="Q5" s="314" t="s">
+      <c r="Q5" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="314"/>
-      <c r="S5" s="314"/>
-      <c r="T5" s="287" t="s">
+      <c r="R5" s="348"/>
+      <c r="S5" s="348"/>
+      <c r="T5" s="345" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="287"/>
-      <c r="V5" s="287"/>
-      <c r="W5" s="287"/>
-      <c r="X5" s="287"/>
-      <c r="Y5" s="287"/>
-      <c r="Z5" s="287"/>
-      <c r="AA5" s="287"/>
-      <c r="AB5" s="287"/>
-      <c r="AC5" s="288" t="s">
+      <c r="U5" s="345"/>
+      <c r="V5" s="345"/>
+      <c r="W5" s="345"/>
+      <c r="X5" s="345"/>
+      <c r="Y5" s="345"/>
+      <c r="Z5" s="345"/>
+      <c r="AA5" s="345"/>
+      <c r="AB5" s="345"/>
+      <c r="AC5" s="368" t="s">
         <v>113</v>
       </c>
-      <c r="AD5" s="288"/>
+      <c r="AD5" s="368"/>
       <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="1:31" ht="22.5" customHeight="1">
@@ -9265,39 +9268,39 @@
       <c r="AE11" s="9"/>
     </row>
     <row r="12" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A12" s="289" t="s">
+      <c r="A12" s="369" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="289"/>
-      <c r="C12" s="289"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="289"/>
-      <c r="G12" s="289"/>
-      <c r="H12" s="289"/>
-      <c r="I12" s="289"/>
-      <c r="J12" s="289"/>
-      <c r="K12" s="289"/>
-      <c r="L12" s="289"/>
-      <c r="M12" s="289"/>
-      <c r="N12" s="289"/>
-      <c r="O12" s="289"/>
-      <c r="P12" s="289"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="289"/>
-      <c r="S12" s="289"/>
-      <c r="T12" s="289"/>
-      <c r="U12" s="289"/>
-      <c r="V12" s="289"/>
-      <c r="W12" s="289"/>
-      <c r="X12" s="289"/>
-      <c r="Y12" s="289"/>
-      <c r="Z12" s="289"/>
-      <c r="AA12" s="289"/>
-      <c r="AB12" s="289"/>
-      <c r="AC12" s="289"/>
-      <c r="AD12" s="289"/>
-      <c r="AE12" s="289"/>
+      <c r="B12" s="369"/>
+      <c r="C12" s="369"/>
+      <c r="D12" s="369"/>
+      <c r="E12" s="369"/>
+      <c r="F12" s="369"/>
+      <c r="G12" s="369"/>
+      <c r="H12" s="369"/>
+      <c r="I12" s="369"/>
+      <c r="J12" s="369"/>
+      <c r="K12" s="369"/>
+      <c r="L12" s="369"/>
+      <c r="M12" s="369"/>
+      <c r="N12" s="369"/>
+      <c r="O12" s="369"/>
+      <c r="P12" s="369"/>
+      <c r="Q12" s="369"/>
+      <c r="R12" s="369"/>
+      <c r="S12" s="369"/>
+      <c r="T12" s="369"/>
+      <c r="U12" s="369"/>
+      <c r="V12" s="369"/>
+      <c r="W12" s="369"/>
+      <c r="X12" s="369"/>
+      <c r="Y12" s="369"/>
+      <c r="Z12" s="369"/>
+      <c r="AA12" s="369"/>
+      <c r="AB12" s="369"/>
+      <c r="AC12" s="369"/>
+      <c r="AD12" s="369"/>
+      <c r="AE12" s="369"/>
     </row>
     <row r="13" spans="1:31" ht="7.5" customHeight="1" thickBot="1">
       <c r="A13" s="15"/>
@@ -9333,246 +9336,246 @@
       <c r="AE13" s="15"/>
     </row>
     <row r="14" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A14" s="290" t="s">
+      <c r="A14" s="317" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="276"/>
-      <c r="C14" s="304" t="s">
+      <c r="B14" s="318"/>
+      <c r="C14" s="379" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="305"/>
-      <c r="E14" s="305"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="305"/>
-      <c r="H14" s="305"/>
-      <c r="I14" s="305"/>
-      <c r="J14" s="305"/>
-      <c r="K14" s="305"/>
-      <c r="L14" s="305"/>
-      <c r="M14" s="298" t="s">
+      <c r="D14" s="380"/>
+      <c r="E14" s="380"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="380"/>
+      <c r="I14" s="380"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="380"/>
+      <c r="L14" s="380"/>
+      <c r="M14" s="375" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="298"/>
-      <c r="O14" s="256" t="s">
+      <c r="N14" s="375"/>
+      <c r="O14" s="319" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="276"/>
-      <c r="Q14" s="300" t="s">
+      <c r="P14" s="318"/>
+      <c r="Q14" s="377" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="301"/>
-      <c r="S14" s="291" t="s">
+      <c r="R14" s="378"/>
+      <c r="S14" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="292"/>
-      <c r="U14" s="293">
+      <c r="T14" s="371"/>
+      <c r="U14" s="372">
         <v>33695</v>
       </c>
-      <c r="V14" s="294"/>
-      <c r="W14" s="294"/>
-      <c r="X14" s="294"/>
-      <c r="Y14" s="294"/>
-      <c r="Z14" s="294"/>
-      <c r="AA14" s="294"/>
+      <c r="V14" s="373"/>
+      <c r="W14" s="373"/>
+      <c r="X14" s="373"/>
+      <c r="Y14" s="373"/>
+      <c r="Z14" s="373"/>
+      <c r="AA14" s="373"/>
       <c r="AB14" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AC14" s="295">
+      <c r="AC14" s="374">
         <f ca="1">IF(U14="","",TODAY()-U14)</f>
-        <v>11434</v>
-      </c>
-      <c r="AD14" s="295"/>
+        <v>11435</v>
+      </c>
+      <c r="AD14" s="374"/>
       <c r="AE14" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A15" s="296" t="s">
+      <c r="A15" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="279"/>
-      <c r="C15" s="315" t="s">
+      <c r="B15" s="193"/>
+      <c r="C15" s="344" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="287"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="277"/>
-      <c r="P15" s="279"/>
-      <c r="Q15" s="302"/>
-      <c r="R15" s="303"/>
-      <c r="S15" s="297" t="s">
+      <c r="D15" s="345"/>
+      <c r="E15" s="345"/>
+      <c r="F15" s="345"/>
+      <c r="G15" s="345"/>
+      <c r="H15" s="345"/>
+      <c r="I15" s="345"/>
+      <c r="J15" s="345"/>
+      <c r="K15" s="345"/>
+      <c r="L15" s="345"/>
+      <c r="M15" s="376"/>
+      <c r="N15" s="376"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="274"/>
+      <c r="S15" s="330" t="s">
         <v>12</v>
       </c>
-      <c r="T15" s="271"/>
-      <c r="U15" s="225">
+      <c r="T15" s="331"/>
+      <c r="U15" s="219">
         <v>12345678</v>
       </c>
-      <c r="V15" s="226"/>
-      <c r="W15" s="226"/>
-      <c r="X15" s="226"/>
-      <c r="Y15" s="226"/>
-      <c r="Z15" s="226"/>
-      <c r="AA15" s="226"/>
-      <c r="AB15" s="226"/>
-      <c r="AC15" s="226"/>
-      <c r="AD15" s="226"/>
-      <c r="AE15" s="227"/>
+      <c r="V15" s="220"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="220"/>
+      <c r="Y15" s="220"/>
+      <c r="Z15" s="220"/>
+      <c r="AA15" s="220"/>
+      <c r="AB15" s="220"/>
+      <c r="AC15" s="220"/>
+      <c r="AD15" s="220"/>
+      <c r="AE15" s="221"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A16" s="309" t="s">
+      <c r="A16" s="340" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="310"/>
-      <c r="C16" s="317" t="s">
+      <c r="B16" s="341"/>
+      <c r="C16" s="349" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="318"/>
-      <c r="E16" s="318"/>
-      <c r="F16" s="318"/>
-      <c r="G16" s="318"/>
-      <c r="H16" s="318"/>
-      <c r="I16" s="318"/>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
-      <c r="M16" s="319" t="s">
+      <c r="D16" s="350"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="350"/>
+      <c r="G16" s="350"/>
+      <c r="H16" s="350"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="350"/>
+      <c r="K16" s="350"/>
+      <c r="L16" s="350"/>
+      <c r="M16" s="351" t="s">
         <v>130</v>
       </c>
-      <c r="N16" s="319"/>
+      <c r="N16" s="351"/>
       <c r="O16" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="320" t="s">
+      <c r="P16" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="320"/>
-      <c r="R16" s="321"/>
-      <c r="S16" s="297" t="s">
+      <c r="Q16" s="352"/>
+      <c r="R16" s="353"/>
+      <c r="S16" s="330" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="271"/>
-      <c r="U16" s="423" t="s">
+      <c r="T16" s="331"/>
+      <c r="U16" s="204" t="s">
         <v>107</v>
       </c>
-      <c r="V16" s="424"/>
-      <c r="W16" s="424"/>
-      <c r="X16" s="424"/>
-      <c r="Y16" s="424"/>
-      <c r="Z16" s="425"/>
-      <c r="AA16" s="220" t="s">
+      <c r="V16" s="205"/>
+      <c r="W16" s="205"/>
+      <c r="X16" s="205"/>
+      <c r="Y16" s="205"/>
+      <c r="Z16" s="206"/>
+      <c r="AA16" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="AB16" s="221"/>
-      <c r="AC16" s="222"/>
-      <c r="AD16" s="223"/>
-      <c r="AE16" s="224"/>
+      <c r="AB16" s="203"/>
+      <c r="AC16" s="381"/>
+      <c r="AD16" s="382"/>
+      <c r="AE16" s="383"/>
     </row>
     <row r="17" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A17" s="311"/>
-      <c r="B17" s="312"/>
-      <c r="C17" s="315" t="s">
+      <c r="A17" s="342"/>
+      <c r="B17" s="343"/>
+      <c r="C17" s="344" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="287"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="316" t="s">
+      <c r="D17" s="345"/>
+      <c r="E17" s="345"/>
+      <c r="F17" s="345"/>
+      <c r="G17" s="345"/>
+      <c r="H17" s="345"/>
+      <c r="I17" s="345"/>
+      <c r="J17" s="345"/>
+      <c r="K17" s="345"/>
+      <c r="L17" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="316"/>
+      <c r="M17" s="279"/>
       <c r="N17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O17" s="124">
         <v>1</v>
       </c>
-      <c r="P17" s="199" t="s">
+      <c r="P17" s="413" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="199"/>
-      <c r="R17" s="200"/>
-      <c r="S17" s="297" t="s">
+      <c r="Q17" s="413"/>
+      <c r="R17" s="414"/>
+      <c r="S17" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="271"/>
-      <c r="U17" s="225" t="s">
+      <c r="T17" s="331"/>
+      <c r="U17" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="V17" s="226"/>
-      <c r="W17" s="226"/>
-      <c r="X17" s="226"/>
-      <c r="Y17" s="226"/>
-      <c r="Z17" s="226"/>
-      <c r="AA17" s="226"/>
-      <c r="AB17" s="226"/>
-      <c r="AC17" s="226"/>
-      <c r="AD17" s="226"/>
-      <c r="AE17" s="227"/>
+      <c r="V17" s="220"/>
+      <c r="W17" s="220"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="220"/>
+      <c r="AA17" s="220"/>
+      <c r="AB17" s="220"/>
+      <c r="AC17" s="220"/>
+      <c r="AD17" s="220"/>
+      <c r="AE17" s="221"/>
     </row>
     <row r="18" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A18" s="309" t="s">
+      <c r="A18" s="340" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="310"/>
-      <c r="C18" s="426" t="s">
+      <c r="B18" s="341"/>
+      <c r="C18" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="328"/>
-      <c r="E18" s="328"/>
-      <c r="F18" s="328"/>
-      <c r="G18" s="345"/>
-      <c r="H18" s="345"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="335"/>
+      <c r="H18" s="335"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="328" t="s">
+      <c r="J18" s="223" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="328"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="328"/>
-      <c r="N18" s="328"/>
-      <c r="O18" s="328"/>
-      <c r="P18" s="328"/>
-      <c r="Q18" s="442" t="s">
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="248" t="s">
         <v>69</v>
       </c>
-      <c r="R18" s="442"/>
-      <c r="S18" s="297" t="s">
+      <c r="R18" s="248"/>
+      <c r="S18" s="330" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="271"/>
-      <c r="U18" s="217" t="s">
+      <c r="T18" s="331"/>
+      <c r="U18" s="430" t="s">
         <v>107</v>
       </c>
-      <c r="V18" s="218"/>
-      <c r="W18" s="218"/>
-      <c r="X18" s="218"/>
-      <c r="Y18" s="218"/>
-      <c r="Z18" s="219"/>
-      <c r="AA18" s="220" t="s">
+      <c r="V18" s="431"/>
+      <c r="W18" s="431"/>
+      <c r="X18" s="431"/>
+      <c r="Y18" s="431"/>
+      <c r="Z18" s="432"/>
+      <c r="AA18" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="AB18" s="221"/>
-      <c r="AC18" s="222"/>
-      <c r="AD18" s="223"/>
-      <c r="AE18" s="224"/>
+      <c r="AB18" s="203"/>
+      <c r="AC18" s="381"/>
+      <c r="AD18" s="382"/>
+      <c r="AE18" s="383"/>
     </row>
     <row r="19" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A19" s="311"/>
-      <c r="B19" s="312"/>
+      <c r="A19" s="342"/>
+      <c r="B19" s="343"/>
       <c r="C19" s="42"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -9589,413 +9592,413 @@
       <c r="N19" s="39">
         <v>3</v>
       </c>
-      <c r="O19" s="443" t="s">
+      <c r="O19" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="443"/>
-      <c r="Q19" s="443"/>
-      <c r="R19" s="443"/>
-      <c r="S19" s="297" t="s">
+      <c r="P19" s="249"/>
+      <c r="Q19" s="249"/>
+      <c r="R19" s="249"/>
+      <c r="S19" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="271"/>
-      <c r="U19" s="208" t="s">
+      <c r="T19" s="331"/>
+      <c r="U19" s="421" t="s">
         <v>47</v>
       </c>
-      <c r="V19" s="209"/>
-      <c r="W19" s="209"/>
-      <c r="X19" s="209"/>
-      <c r="Y19" s="209"/>
-      <c r="Z19" s="209"/>
-      <c r="AA19" s="209"/>
-      <c r="AB19" s="209"/>
-      <c r="AC19" s="209"/>
-      <c r="AD19" s="209"/>
-      <c r="AE19" s="210"/>
+      <c r="V19" s="422"/>
+      <c r="W19" s="422"/>
+      <c r="X19" s="422"/>
+      <c r="Y19" s="422"/>
+      <c r="Z19" s="422"/>
+      <c r="AA19" s="422"/>
+      <c r="AB19" s="422"/>
+      <c r="AC19" s="422"/>
+      <c r="AD19" s="422"/>
+      <c r="AE19" s="423"/>
     </row>
     <row r="20" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A20" s="342" t="s">
+      <c r="A20" s="332" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="343"/>
+      <c r="B20" s="333"/>
       <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="235" t="s">
+      <c r="D20" s="439" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="235"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="235"/>
-      <c r="L20" s="235"/>
-      <c r="M20" s="235"/>
-      <c r="N20" s="235"/>
-      <c r="O20" s="235"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="236"/>
-      <c r="S20" s="297" t="s">
+      <c r="E20" s="439"/>
+      <c r="F20" s="439"/>
+      <c r="G20" s="439"/>
+      <c r="H20" s="439"/>
+      <c r="I20" s="439"/>
+      <c r="J20" s="439"/>
+      <c r="K20" s="439"/>
+      <c r="L20" s="439"/>
+      <c r="M20" s="439"/>
+      <c r="N20" s="439"/>
+      <c r="O20" s="439"/>
+      <c r="P20" s="439"/>
+      <c r="Q20" s="439"/>
+      <c r="R20" s="440"/>
+      <c r="S20" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="T20" s="271"/>
-      <c r="U20" s="225" t="s">
+      <c r="T20" s="331"/>
+      <c r="U20" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="V20" s="226"/>
-      <c r="W20" s="226"/>
-      <c r="X20" s="226"/>
-      <c r="Y20" s="226"/>
-      <c r="Z20" s="226"/>
-      <c r="AA20" s="226"/>
-      <c r="AB20" s="226"/>
-      <c r="AC20" s="226"/>
-      <c r="AD20" s="226"/>
-      <c r="AE20" s="227"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="221"/>
     </row>
     <row r="21" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A21" s="344"/>
-      <c r="B21" s="229"/>
-      <c r="C21" s="315" t="s">
+      <c r="A21" s="259"/>
+      <c r="B21" s="334"/>
+      <c r="C21" s="344" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="287"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="287"/>
-      <c r="M21" s="287"/>
-      <c r="N21" s="287"/>
-      <c r="O21" s="287"/>
-      <c r="P21" s="287"/>
-      <c r="Q21" s="287"/>
-      <c r="R21" s="354"/>
-      <c r="S21" s="228" t="s">
+      <c r="D21" s="345"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
+      <c r="K21" s="345"/>
+      <c r="L21" s="345"/>
+      <c r="M21" s="345"/>
+      <c r="N21" s="345"/>
+      <c r="O21" s="345"/>
+      <c r="P21" s="345"/>
+      <c r="Q21" s="345"/>
+      <c r="R21" s="346"/>
+      <c r="S21" s="433" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="229"/>
-      <c r="U21" s="225" t="s">
+      <c r="T21" s="334"/>
+      <c r="U21" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="V21" s="226"/>
-      <c r="W21" s="226"/>
-      <c r="X21" s="226"/>
+      <c r="V21" s="220"/>
+      <c r="W21" s="220"/>
+      <c r="X21" s="220"/>
       <c r="Y21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Z21" s="226"/>
-      <c r="AA21" s="226"/>
-      <c r="AB21" s="226"/>
-      <c r="AC21" s="226"/>
-      <c r="AD21" s="226"/>
+      <c r="Z21" s="220"/>
+      <c r="AA21" s="220"/>
+      <c r="AB21" s="220"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="220"/>
       <c r="AE21" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AJ21" s="29"/>
     </row>
     <row r="22" spans="1:36" ht="30" customHeight="1">
-      <c r="A22" s="240" t="s">
+      <c r="A22" s="442" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="241"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="267" t="s">
+      <c r="B22" s="443"/>
+      <c r="C22" s="443"/>
+      <c r="D22" s="444"/>
+      <c r="E22" s="400" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="268"/>
-      <c r="G22" s="268"/>
-      <c r="H22" s="268"/>
+      <c r="F22" s="401"/>
+      <c r="G22" s="401"/>
+      <c r="H22" s="401"/>
       <c r="I22" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="253" t="s">
+      <c r="J22" s="393" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="253"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="254" t="s">
+      <c r="K22" s="393"/>
+      <c r="L22" s="393"/>
+      <c r="M22" s="394" t="s">
         <v>96</v>
       </c>
-      <c r="N22" s="254"/>
-      <c r="O22" s="253" t="s">
+      <c r="N22" s="394"/>
+      <c r="O22" s="393" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="253"/>
-      <c r="Q22" s="254" t="s">
+      <c r="P22" s="393"/>
+      <c r="Q22" s="394" t="s">
         <v>98</v>
       </c>
-      <c r="R22" s="255"/>
-      <c r="S22" s="271" t="s">
+      <c r="R22" s="395"/>
+      <c r="S22" s="331" t="s">
         <v>118</v>
       </c>
-      <c r="T22" s="272"/>
-      <c r="U22" s="214" t="s">
+      <c r="T22" s="404"/>
+      <c r="U22" s="427" t="s">
         <v>121</v>
       </c>
-      <c r="V22" s="215"/>
-      <c r="W22" s="215"/>
-      <c r="X22" s="215"/>
-      <c r="Y22" s="215"/>
-      <c r="Z22" s="215"/>
-      <c r="AA22" s="215"/>
-      <c r="AB22" s="215"/>
-      <c r="AC22" s="215"/>
-      <c r="AD22" s="215"/>
-      <c r="AE22" s="216"/>
+      <c r="V22" s="428"/>
+      <c r="W22" s="428"/>
+      <c r="X22" s="428"/>
+      <c r="Y22" s="428"/>
+      <c r="Z22" s="428"/>
+      <c r="AA22" s="428"/>
+      <c r="AB22" s="428"/>
+      <c r="AC22" s="428"/>
+      <c r="AD22" s="428"/>
+      <c r="AE22" s="429"/>
       <c r="AJ22" s="29"/>
     </row>
     <row r="23" spans="1:36" ht="18" customHeight="1">
-      <c r="A23" s="427" t="s">
+      <c r="A23" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="428"/>
-      <c r="C23" s="428"/>
-      <c r="D23" s="429"/>
-      <c r="E23" s="436" t="s">
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="437"/>
-      <c r="G23" s="383" t="s">
+      <c r="F23" s="234"/>
+      <c r="G23" s="309" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="325" t="s">
+      <c r="H23" s="357" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="325"/>
-      <c r="J23" s="325"/>
-      <c r="K23" s="325"/>
-      <c r="L23" s="325"/>
-      <c r="M23" s="325"/>
-      <c r="N23" s="325"/>
-      <c r="O23" s="325"/>
-      <c r="P23" s="325"/>
-      <c r="Q23" s="358" t="s">
+      <c r="I23" s="357"/>
+      <c r="J23" s="357"/>
+      <c r="K23" s="357"/>
+      <c r="L23" s="357"/>
+      <c r="M23" s="357"/>
+      <c r="N23" s="357"/>
+      <c r="O23" s="357"/>
+      <c r="P23" s="357"/>
+      <c r="Q23" s="286" t="s">
         <v>143</v>
       </c>
-      <c r="R23" s="358"/>
+      <c r="R23" s="286"/>
       <c r="S23" s="136" t="s">
         <v>109</v>
       </c>
       <c r="T23" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="U23" s="361"/>
-      <c r="V23" s="361"/>
-      <c r="W23" s="362"/>
-      <c r="X23" s="416" t="s">
+      <c r="U23" s="289"/>
+      <c r="V23" s="289"/>
+      <c r="W23" s="290"/>
+      <c r="X23" s="194" t="s">
         <v>174</v>
       </c>
-      <c r="Y23" s="417"/>
-      <c r="Z23" s="422" t="s">
+      <c r="Y23" s="195"/>
+      <c r="Z23" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="AA23" s="186" t="s">
+      <c r="AA23" s="408" t="s">
         <v>144</v>
       </c>
-      <c r="AB23" s="187"/>
-      <c r="AC23" s="187"/>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="188"/>
+      <c r="AB23" s="409"/>
+      <c r="AC23" s="409"/>
+      <c r="AD23" s="409"/>
+      <c r="AE23" s="410"/>
     </row>
     <row r="24" spans="1:36" ht="23.25" customHeight="1">
-      <c r="A24" s="430"/>
-      <c r="B24" s="431"/>
-      <c r="C24" s="431"/>
-      <c r="D24" s="432"/>
-      <c r="E24" s="438"/>
-      <c r="F24" s="439"/>
-      <c r="G24" s="384"/>
-      <c r="H24" s="322" t="s">
+      <c r="A24" s="227"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="310"/>
+      <c r="H24" s="354" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="322"/>
-      <c r="J24" s="322"/>
-      <c r="K24" s="322"/>
-      <c r="L24" s="322"/>
-      <c r="M24" s="322"/>
-      <c r="N24" s="322"/>
-      <c r="O24" s="322"/>
-      <c r="P24" s="322"/>
-      <c r="Q24" s="359"/>
-      <c r="R24" s="359"/>
+      <c r="I24" s="354"/>
+      <c r="J24" s="354"/>
+      <c r="K24" s="354"/>
+      <c r="L24" s="354"/>
+      <c r="M24" s="354"/>
+      <c r="N24" s="354"/>
+      <c r="O24" s="354"/>
+      <c r="P24" s="354"/>
+      <c r="Q24" s="287"/>
+      <c r="R24" s="287"/>
       <c r="S24" s="138" t="s">
         <v>109</v>
       </c>
       <c r="T24" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="U24" s="191"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="418"/>
-      <c r="Y24" s="419"/>
-      <c r="Z24" s="239"/>
-      <c r="AA24" s="189"/>
-      <c r="AB24" s="189"/>
-      <c r="AC24" s="189"/>
-      <c r="AD24" s="189"/>
-      <c r="AE24" s="190"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="292"/>
+      <c r="W24" s="293"/>
+      <c r="X24" s="196"/>
+      <c r="Y24" s="197"/>
+      <c r="Z24" s="201"/>
+      <c r="AA24" s="411"/>
+      <c r="AB24" s="411"/>
+      <c r="AC24" s="411"/>
+      <c r="AD24" s="411"/>
+      <c r="AE24" s="412"/>
     </row>
     <row r="25" spans="1:36" ht="18" customHeight="1">
-      <c r="A25" s="430"/>
-      <c r="B25" s="431"/>
-      <c r="C25" s="431"/>
-      <c r="D25" s="432"/>
-      <c r="E25" s="438"/>
-      <c r="F25" s="439"/>
-      <c r="G25" s="385"/>
-      <c r="H25" s="363" t="s">
+      <c r="A25" s="227"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="311"/>
+      <c r="H25" s="291" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="363"/>
-      <c r="J25" s="363"/>
-      <c r="K25" s="363"/>
-      <c r="L25" s="363"/>
-      <c r="M25" s="363"/>
-      <c r="N25" s="363"/>
-      <c r="O25" s="363"/>
-      <c r="P25" s="363"/>
-      <c r="Q25" s="360"/>
-      <c r="R25" s="360"/>
+      <c r="I25" s="291"/>
+      <c r="J25" s="291"/>
+      <c r="K25" s="291"/>
+      <c r="L25" s="291"/>
+      <c r="M25" s="291"/>
+      <c r="N25" s="291"/>
+      <c r="O25" s="291"/>
+      <c r="P25" s="291"/>
+      <c r="Q25" s="288"/>
+      <c r="R25" s="288"/>
       <c r="S25" s="140" t="s">
         <v>80</v>
       </c>
       <c r="T25" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="U25" s="191"/>
-      <c r="V25" s="191"/>
-      <c r="W25" s="192"/>
-      <c r="X25" s="418"/>
-      <c r="Y25" s="419"/>
-      <c r="Z25" s="238" t="s">
+      <c r="U25" s="292"/>
+      <c r="V25" s="292"/>
+      <c r="W25" s="293"/>
+      <c r="X25" s="196"/>
+      <c r="Y25" s="197"/>
+      <c r="Z25" s="441" t="s">
         <v>109</v>
       </c>
-      <c r="AA25" s="230" t="s">
+      <c r="AA25" s="434" t="s">
         <v>148</v>
       </c>
-      <c r="AB25" s="231"/>
-      <c r="AC25" s="231"/>
-      <c r="AD25" s="231"/>
-      <c r="AE25" s="232"/>
+      <c r="AB25" s="435"/>
+      <c r="AC25" s="435"/>
+      <c r="AD25" s="435"/>
+      <c r="AE25" s="436"/>
     </row>
     <row r="26" spans="1:36" ht="28" customHeight="1">
-      <c r="A26" s="433"/>
-      <c r="B26" s="434"/>
-      <c r="C26" s="434"/>
-      <c r="D26" s="435"/>
-      <c r="E26" s="440"/>
-      <c r="F26" s="441"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="238"/>
       <c r="G26" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="323" t="s">
+      <c r="H26" s="355" t="s">
         <v>149</v>
       </c>
-      <c r="I26" s="323"/>
-      <c r="J26" s="323"/>
-      <c r="K26" s="323"/>
-      <c r="L26" s="323"/>
-      <c r="M26" s="323"/>
-      <c r="N26" s="323"/>
-      <c r="O26" s="323"/>
-      <c r="P26" s="323"/>
-      <c r="Q26" s="323"/>
-      <c r="R26" s="323"/>
-      <c r="S26" s="323"/>
-      <c r="T26" s="323"/>
-      <c r="U26" s="323"/>
-      <c r="V26" s="323"/>
-      <c r="W26" s="324"/>
-      <c r="X26" s="420"/>
-      <c r="Y26" s="421"/>
-      <c r="Z26" s="239"/>
-      <c r="AA26" s="233"/>
-      <c r="AB26" s="233"/>
-      <c r="AC26" s="233"/>
-      <c r="AD26" s="233"/>
-      <c r="AE26" s="234"/>
+      <c r="I26" s="355"/>
+      <c r="J26" s="355"/>
+      <c r="K26" s="355"/>
+      <c r="L26" s="355"/>
+      <c r="M26" s="355"/>
+      <c r="N26" s="355"/>
+      <c r="O26" s="355"/>
+      <c r="P26" s="355"/>
+      <c r="Q26" s="355"/>
+      <c r="R26" s="355"/>
+      <c r="S26" s="355"/>
+      <c r="T26" s="355"/>
+      <c r="U26" s="355"/>
+      <c r="V26" s="355"/>
+      <c r="W26" s="356"/>
+      <c r="X26" s="198"/>
+      <c r="Y26" s="199"/>
+      <c r="Z26" s="201"/>
+      <c r="AA26" s="437"/>
+      <c r="AB26" s="437"/>
+      <c r="AC26" s="437"/>
+      <c r="AD26" s="437"/>
+      <c r="AE26" s="438"/>
     </row>
     <row r="27" spans="1:36" ht="28" customHeight="1">
-      <c r="A27" s="372" t="s">
+      <c r="A27" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="373"/>
-      <c r="C27" s="373"/>
-      <c r="D27" s="374"/>
+      <c r="B27" s="301"/>
+      <c r="C27" s="301"/>
+      <c r="D27" s="302"/>
       <c r="E27" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="237">
+      <c r="F27" s="329">
         <v>45026</v>
       </c>
-      <c r="G27" s="237"/>
-      <c r="H27" s="237"/>
-      <c r="I27" s="237"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="378" t="s">
+      <c r="G27" s="329"/>
+      <c r="H27" s="329"/>
+      <c r="I27" s="329"/>
+      <c r="J27" s="329"/>
+      <c r="K27" s="306" t="s">
         <v>65</v>
       </c>
       <c r="L27" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="237">
+      <c r="M27" s="329">
         <v>45351</v>
       </c>
-      <c r="N27" s="237"/>
-      <c r="O27" s="237"/>
-      <c r="P27" s="237"/>
-      <c r="Q27" s="237"/>
-      <c r="R27" s="237"/>
-      <c r="S27" s="237"/>
+      <c r="N27" s="329"/>
+      <c r="O27" s="329"/>
+      <c r="P27" s="329"/>
+      <c r="Q27" s="329"/>
+      <c r="R27" s="329"/>
+      <c r="S27" s="329"/>
       <c r="T27" s="145"/>
-      <c r="U27" s="202" t="s">
+      <c r="U27" s="415" t="s">
         <v>92</v>
       </c>
-      <c r="V27" s="204" t="s">
+      <c r="V27" s="417" t="s">
         <v>167</v>
       </c>
-      <c r="W27" s="204"/>
-      <c r="X27" s="204"/>
-      <c r="Y27" s="204"/>
-      <c r="Z27" s="204"/>
-      <c r="AA27" s="204"/>
-      <c r="AB27" s="204"/>
-      <c r="AC27" s="204"/>
-      <c r="AD27" s="204"/>
-      <c r="AE27" s="205"/>
+      <c r="W27" s="417"/>
+      <c r="X27" s="417"/>
+      <c r="Y27" s="417"/>
+      <c r="Z27" s="417"/>
+      <c r="AA27" s="417"/>
+      <c r="AB27" s="417"/>
+      <c r="AC27" s="417"/>
+      <c r="AD27" s="417"/>
+      <c r="AE27" s="418"/>
     </row>
     <row r="28" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A28" s="375"/>
-      <c r="B28" s="376"/>
-      <c r="C28" s="376"/>
-      <c r="D28" s="377"/>
+      <c r="A28" s="303"/>
+      <c r="B28" s="304"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="305"/>
       <c r="E28" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="308">
+      <c r="F28" s="328">
         <v>45054</v>
       </c>
-      <c r="G28" s="308"/>
-      <c r="H28" s="308"/>
-      <c r="I28" s="308"/>
-      <c r="J28" s="308"/>
-      <c r="K28" s="379"/>
+      <c r="G28" s="328"/>
+      <c r="H28" s="328"/>
+      <c r="I28" s="328"/>
+      <c r="J28" s="328"/>
+      <c r="K28" s="307"/>
       <c r="L28" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="M28" s="387" t="s">
+      <c r="M28" s="313" t="s">
         <v>159</v>
       </c>
-      <c r="N28" s="387"/>
+      <c r="N28" s="313"/>
       <c r="O28" s="135" t="s">
         <v>139</v>
       </c>
@@ -10012,39 +10015,39 @@
         <v>141</v>
       </c>
       <c r="T28" s="134"/>
-      <c r="U28" s="203"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="206"/>
-      <c r="X28" s="206"/>
-      <c r="Y28" s="206"/>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="206"/>
-      <c r="AC28" s="206"/>
-      <c r="AD28" s="206"/>
-      <c r="AE28" s="207"/>
+      <c r="U28" s="416"/>
+      <c r="V28" s="419"/>
+      <c r="W28" s="419"/>
+      <c r="X28" s="419"/>
+      <c r="Y28" s="419"/>
+      <c r="Z28" s="419"/>
+      <c r="AA28" s="419"/>
+      <c r="AB28" s="419"/>
+      <c r="AC28" s="419"/>
+      <c r="AD28" s="419"/>
+      <c r="AE28" s="420"/>
     </row>
     <row r="29" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A29" s="375"/>
-      <c r="B29" s="376"/>
-      <c r="C29" s="376"/>
-      <c r="D29" s="377"/>
+      <c r="A29" s="303"/>
+      <c r="B29" s="304"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="305"/>
       <c r="E29" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="308">
+      <c r="F29" s="328">
         <v>45200</v>
       </c>
-      <c r="G29" s="308"/>
-      <c r="H29" s="308"/>
-      <c r="I29" s="308"/>
-      <c r="J29" s="308"/>
-      <c r="K29" s="380"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328"/>
+      <c r="J29" s="328"/>
+      <c r="K29" s="308"/>
       <c r="L29" s="153" t="s">
         <v>157</v>
       </c>
-      <c r="M29" s="353"/>
-      <c r="N29" s="353"/>
+      <c r="M29" s="339"/>
+      <c r="N29" s="339"/>
       <c r="O29" s="148" t="s">
         <v>139</v>
       </c>
@@ -10060,11 +10063,11 @@
       <c r="U29" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="V29" s="386" t="s">
+      <c r="V29" s="312" t="s">
         <v>158</v>
       </c>
-      <c r="W29" s="386"/>
-      <c r="X29" s="386"/>
+      <c r="W29" s="312"/>
+      <c r="X29" s="312"/>
       <c r="Y29" s="154"/>
       <c r="Z29" s="154"/>
       <c r="AA29" s="154"/>
@@ -10074,45 +10077,45 @@
       <c r="AE29" s="155"/>
     </row>
     <row r="30" spans="1:36" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="358" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="281"/>
-      <c r="C30" s="281"/>
-      <c r="D30" s="282"/>
+      <c r="B30" s="359"/>
+      <c r="C30" s="359"/>
+      <c r="D30" s="360"/>
       <c r="E30" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="201" t="s">
+      <c r="F30" s="361" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="201"/>
-      <c r="H30" s="201"/>
+      <c r="G30" s="361"/>
+      <c r="H30" s="361"/>
       <c r="I30" s="125" t="s">
         <v>132</v>
       </c>
       <c r="J30" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="201" t="s">
+      <c r="K30" s="361" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="201"/>
-      <c r="M30" s="201"/>
-      <c r="N30" s="201"/>
-      <c r="O30" s="201"/>
+      <c r="L30" s="361"/>
+      <c r="M30" s="361"/>
+      <c r="N30" s="361"/>
+      <c r="O30" s="361"/>
       <c r="P30" s="125" t="s">
         <v>132</v>
       </c>
       <c r="Q30" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="R30" s="270" t="s">
+      <c r="R30" s="403" t="s">
         <v>137</v>
       </c>
-      <c r="S30" s="270"/>
-      <c r="T30" s="270"/>
-      <c r="U30" s="270"/>
+      <c r="S30" s="403"/>
+      <c r="T30" s="403"/>
+      <c r="U30" s="403"/>
       <c r="V30" s="125" t="s">
         <v>132</v>
       </c>
@@ -10122,126 +10125,126 @@
       <c r="X30" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="Y30" s="201"/>
-      <c r="Z30" s="201"/>
-      <c r="AA30" s="201"/>
-      <c r="AB30" s="201"/>
-      <c r="AC30" s="201"/>
-      <c r="AD30" s="201"/>
+      <c r="Y30" s="361"/>
+      <c r="Z30" s="361"/>
+      <c r="AA30" s="361"/>
+      <c r="AB30" s="361"/>
+      <c r="AC30" s="361"/>
+      <c r="AD30" s="361"/>
       <c r="AE30" s="126" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A31" s="329" t="s">
+      <c r="A31" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="290" t="s">
+      <c r="B31" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="276"/>
-      <c r="D31" s="256" t="s">
+      <c r="C31" s="318"/>
+      <c r="D31" s="319" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="276"/>
-      <c r="I31" s="332" t="s">
+      <c r="E31" s="320"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="318"/>
+      <c r="I31" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="250" t="s">
+      <c r="J31" s="390" t="s">
         <v>181</v>
       </c>
-      <c r="K31" s="251"/>
-      <c r="L31" s="251"/>
-      <c r="M31" s="251"/>
-      <c r="N31" s="251"/>
-      <c r="O31" s="251"/>
-      <c r="P31" s="251"/>
-      <c r="Q31" s="251"/>
-      <c r="R31" s="251"/>
-      <c r="S31" s="252"/>
-      <c r="T31" s="256" t="s">
+      <c r="K31" s="391"/>
+      <c r="L31" s="391"/>
+      <c r="M31" s="391"/>
+      <c r="N31" s="391"/>
+      <c r="O31" s="391"/>
+      <c r="P31" s="391"/>
+      <c r="Q31" s="391"/>
+      <c r="R31" s="391"/>
+      <c r="S31" s="392"/>
+      <c r="T31" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="U31" s="257"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="276"/>
+      <c r="U31" s="320"/>
+      <c r="V31" s="320"/>
+      <c r="W31" s="318"/>
       <c r="X31" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="Y31" s="256"/>
-      <c r="Z31" s="257"/>
-      <c r="AA31" s="257"/>
-      <c r="AB31" s="257"/>
-      <c r="AC31" s="257"/>
-      <c r="AD31" s="257"/>
-      <c r="AE31" s="258"/>
+      <c r="Y31" s="319"/>
+      <c r="Z31" s="320"/>
+      <c r="AA31" s="320"/>
+      <c r="AB31" s="320"/>
+      <c r="AC31" s="320"/>
+      <c r="AD31" s="320"/>
+      <c r="AE31" s="396"/>
     </row>
     <row r="32" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A32" s="330"/>
-      <c r="B32" s="296" t="s">
+      <c r="A32" s="315"/>
+      <c r="B32" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="279"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="279"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="350" t="s">
+      <c r="C32" s="193"/>
+      <c r="D32" s="321"/>
+      <c r="E32" s="322"/>
+      <c r="F32" s="322"/>
+      <c r="G32" s="322"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="324"/>
+      <c r="J32" s="336" t="s">
         <v>180</v>
       </c>
-      <c r="K32" s="351"/>
-      <c r="L32" s="352" t="s">
+      <c r="K32" s="337"/>
+      <c r="L32" s="338" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="352"/>
-      <c r="N32" s="352"/>
-      <c r="O32" s="352"/>
-      <c r="P32" s="352"/>
-      <c r="Q32" s="352"/>
-      <c r="R32" s="352"/>
-      <c r="S32" s="351"/>
-      <c r="T32" s="277"/>
-      <c r="U32" s="278"/>
-      <c r="V32" s="278"/>
-      <c r="W32" s="279"/>
+      <c r="M32" s="338"/>
+      <c r="N32" s="338"/>
+      <c r="O32" s="338"/>
+      <c r="P32" s="338"/>
+      <c r="Q32" s="338"/>
+      <c r="R32" s="338"/>
+      <c r="S32" s="337"/>
+      <c r="T32" s="321"/>
+      <c r="U32" s="322"/>
+      <c r="V32" s="322"/>
+      <c r="W32" s="193"/>
       <c r="X32" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Y32" s="211" t="s">
+      <c r="Y32" s="424" t="s">
         <v>182</v>
       </c>
-      <c r="Z32" s="212"/>
-      <c r="AA32" s="212"/>
-      <c r="AB32" s="212"/>
-      <c r="AC32" s="212"/>
-      <c r="AD32" s="212"/>
-      <c r="AE32" s="213"/>
+      <c r="Z32" s="425"/>
+      <c r="AA32" s="425"/>
+      <c r="AB32" s="425"/>
+      <c r="AC32" s="425"/>
+      <c r="AD32" s="425"/>
+      <c r="AE32" s="426"/>
     </row>
     <row r="33" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A33" s="330"/>
-      <c r="B33" s="334">
+      <c r="A33" s="315"/>
+      <c r="B33" s="263">
         <v>123456</v>
       </c>
-      <c r="C33" s="335"/>
-      <c r="D33" s="262" t="s">
+      <c r="C33" s="264"/>
+      <c r="D33" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="263"/>
-      <c r="H33" s="263"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
       <c r="I33" s="44">
         <v>1</v>
       </c>
-      <c r="J33" s="326" t="s">
+      <c r="J33" s="241" t="s">
         <v>183</v>
       </c>
-      <c r="K33" s="327"/>
+      <c r="K33" s="242"/>
       <c r="L33" s="50">
         <v>9</v>
       </c>
@@ -10281,36 +10284,36 @@
       <c r="X33" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="Y33" s="247" t="s">
+      <c r="Y33" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="Z33" s="248"/>
-      <c r="AA33" s="248"/>
-      <c r="AB33" s="248"/>
-      <c r="AC33" s="248"/>
-      <c r="AD33" s="248"/>
-      <c r="AE33" s="249"/>
+      <c r="Z33" s="208"/>
+      <c r="AA33" s="208"/>
+      <c r="AB33" s="208"/>
+      <c r="AC33" s="208"/>
+      <c r="AD33" s="208"/>
+      <c r="AE33" s="209"/>
     </row>
     <row r="34" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A34" s="330"/>
-      <c r="B34" s="364">
+      <c r="A34" s="315"/>
+      <c r="B34" s="210">
         <v>123456</v>
       </c>
-      <c r="C34" s="365"/>
-      <c r="D34" s="348" t="s">
+      <c r="C34" s="211"/>
+      <c r="D34" s="294" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="349"/>
-      <c r="F34" s="349"/>
-      <c r="G34" s="349"/>
-      <c r="H34" s="349"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
+      <c r="G34" s="295"/>
+      <c r="H34" s="295"/>
       <c r="I34" s="45">
         <v>1</v>
       </c>
-      <c r="J34" s="346" t="s">
+      <c r="J34" s="243" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="347"/>
+      <c r="K34" s="244"/>
       <c r="L34" s="56">
         <v>9</v>
       </c>
@@ -10348,28 +10351,28 @@
       <c r="X34" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Y34" s="193" t="s">
+      <c r="Y34" s="245" t="s">
         <v>55</v>
       </c>
-      <c r="Z34" s="194"/>
-      <c r="AA34" s="194"/>
-      <c r="AB34" s="194"/>
-      <c r="AC34" s="194"/>
-      <c r="AD34" s="194"/>
-      <c r="AE34" s="195"/>
+      <c r="Z34" s="246"/>
+      <c r="AA34" s="246"/>
+      <c r="AB34" s="246"/>
+      <c r="AC34" s="246"/>
+      <c r="AD34" s="246"/>
+      <c r="AE34" s="247"/>
     </row>
     <row r="35" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A35" s="330"/>
-      <c r="B35" s="356"/>
-      <c r="C35" s="357"/>
-      <c r="D35" s="370"/>
-      <c r="E35" s="371"/>
-      <c r="F35" s="371"/>
-      <c r="G35" s="371"/>
-      <c r="H35" s="371"/>
+      <c r="A35" s="315"/>
+      <c r="B35" s="284"/>
+      <c r="C35" s="285"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="381"/>
-      <c r="K35" s="382"/>
+      <c r="J35" s="239"/>
+      <c r="K35" s="240"/>
       <c r="L35" s="46"/>
       <c r="M35" s="3" t="s">
         <v>10</v>
@@ -10395,34 +10398,34 @@
         <v>127</v>
       </c>
       <c r="X35" s="7"/>
-      <c r="Y35" s="196"/>
-      <c r="Z35" s="197"/>
-      <c r="AA35" s="197"/>
-      <c r="AB35" s="197"/>
-      <c r="AC35" s="197"/>
-      <c r="AD35" s="197"/>
-      <c r="AE35" s="198"/>
+      <c r="Y35" s="216"/>
+      <c r="Z35" s="217"/>
+      <c r="AA35" s="217"/>
+      <c r="AB35" s="217"/>
+      <c r="AC35" s="217"/>
+      <c r="AD35" s="217"/>
+      <c r="AE35" s="218"/>
     </row>
     <row r="36" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A36" s="330"/>
-      <c r="B36" s="334">
+      <c r="A36" s="315"/>
+      <c r="B36" s="263">
         <v>123456</v>
       </c>
-      <c r="C36" s="335"/>
-      <c r="D36" s="262" t="s">
+      <c r="C36" s="264"/>
+      <c r="D36" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="263"/>
-      <c r="F36" s="263"/>
-      <c r="G36" s="263"/>
-      <c r="H36" s="263"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="213"/>
       <c r="I36" s="44">
         <v>2</v>
       </c>
-      <c r="J36" s="326" t="s">
+      <c r="J36" s="241" t="s">
         <v>184</v>
       </c>
-      <c r="K36" s="327"/>
+      <c r="K36" s="242"/>
       <c r="L36" s="50">
         <v>9</v>
       </c>
@@ -10460,28 +10463,28 @@
       <c r="X36" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Y36" s="273" t="s">
+      <c r="Y36" s="405" t="s">
         <v>56</v>
       </c>
-      <c r="Z36" s="274"/>
-      <c r="AA36" s="274"/>
-      <c r="AB36" s="274"/>
-      <c r="AC36" s="274"/>
-      <c r="AD36" s="274"/>
-      <c r="AE36" s="275"/>
+      <c r="Z36" s="406"/>
+      <c r="AA36" s="406"/>
+      <c r="AB36" s="406"/>
+      <c r="AC36" s="406"/>
+      <c r="AD36" s="406"/>
+      <c r="AE36" s="407"/>
     </row>
     <row r="37" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A37" s="330"/>
-      <c r="B37" s="364"/>
-      <c r="C37" s="365"/>
-      <c r="D37" s="348"/>
-      <c r="E37" s="349"/>
-      <c r="F37" s="349"/>
-      <c r="G37" s="349"/>
-      <c r="H37" s="349"/>
+      <c r="A37" s="315"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="294"/>
+      <c r="E37" s="295"/>
+      <c r="F37" s="295"/>
+      <c r="G37" s="295"/>
+      <c r="H37" s="295"/>
       <c r="I37" s="45"/>
-      <c r="J37" s="346"/>
-      <c r="K37" s="347"/>
+      <c r="J37" s="243"/>
+      <c r="K37" s="244"/>
       <c r="L37" s="56"/>
       <c r="M37" s="57" t="s">
         <v>128</v>
@@ -10507,26 +10510,26 @@
         <v>127</v>
       </c>
       <c r="X37" s="45"/>
-      <c r="Y37" s="193"/>
-      <c r="Z37" s="194"/>
-      <c r="AA37" s="194"/>
-      <c r="AB37" s="194"/>
-      <c r="AC37" s="194"/>
-      <c r="AD37" s="194"/>
-      <c r="AE37" s="195"/>
+      <c r="Y37" s="245"/>
+      <c r="Z37" s="246"/>
+      <c r="AA37" s="246"/>
+      <c r="AB37" s="246"/>
+      <c r="AC37" s="246"/>
+      <c r="AD37" s="246"/>
+      <c r="AE37" s="247"/>
     </row>
     <row r="38" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A38" s="330"/>
-      <c r="B38" s="366"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="368"/>
-      <c r="E38" s="369"/>
-      <c r="F38" s="369"/>
-      <c r="G38" s="369"/>
-      <c r="H38" s="369"/>
+      <c r="A38" s="315"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="298"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="299"/>
+      <c r="G38" s="299"/>
+      <c r="H38" s="299"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="381"/>
-      <c r="K38" s="382"/>
+      <c r="J38" s="239"/>
+      <c r="K38" s="240"/>
       <c r="L38" s="46"/>
       <c r="M38" s="3" t="s">
         <v>10</v>
@@ -10552,34 +10555,34 @@
         <v>127</v>
       </c>
       <c r="X38" s="7"/>
-      <c r="Y38" s="196"/>
-      <c r="Z38" s="197"/>
-      <c r="AA38" s="197"/>
-      <c r="AB38" s="197"/>
-      <c r="AC38" s="197"/>
-      <c r="AD38" s="197"/>
-      <c r="AE38" s="198"/>
+      <c r="Y38" s="216"/>
+      <c r="Z38" s="217"/>
+      <c r="AA38" s="217"/>
+      <c r="AB38" s="217"/>
+      <c r="AC38" s="217"/>
+      <c r="AD38" s="217"/>
+      <c r="AE38" s="218"/>
     </row>
     <row r="39" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A39" s="330"/>
-      <c r="B39" s="334">
+      <c r="A39" s="315"/>
+      <c r="B39" s="263">
         <v>123444</v>
       </c>
-      <c r="C39" s="335"/>
-      <c r="D39" s="262" t="s">
+      <c r="C39" s="264"/>
+      <c r="D39" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
-      <c r="G39" s="263"/>
-      <c r="H39" s="263"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
       <c r="I39" s="44">
         <v>3</v>
       </c>
-      <c r="J39" s="326" t="s">
+      <c r="J39" s="241" t="s">
         <v>185</v>
       </c>
-      <c r="K39" s="327"/>
+      <c r="K39" s="242"/>
       <c r="L39" s="50">
         <v>9</v>
       </c>
@@ -10617,34 +10620,34 @@
       <c r="X39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Y39" s="247"/>
-      <c r="Z39" s="248"/>
-      <c r="AA39" s="248"/>
-      <c r="AB39" s="248"/>
-      <c r="AC39" s="248"/>
-      <c r="AD39" s="248"/>
-      <c r="AE39" s="249"/>
+      <c r="Y39" s="207"/>
+      <c r="Z39" s="208"/>
+      <c r="AA39" s="208"/>
+      <c r="AB39" s="208"/>
+      <c r="AC39" s="208"/>
+      <c r="AD39" s="208"/>
+      <c r="AE39" s="209"/>
     </row>
     <row r="40" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A40" s="330"/>
-      <c r="B40" s="364">
+      <c r="A40" s="315"/>
+      <c r="B40" s="210">
         <v>123444</v>
       </c>
-      <c r="C40" s="365"/>
-      <c r="D40" s="348" t="s">
+      <c r="C40" s="211"/>
+      <c r="D40" s="294" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="349"/>
-      <c r="F40" s="349"/>
-      <c r="G40" s="349"/>
-      <c r="H40" s="349"/>
+      <c r="E40" s="295"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="295"/>
       <c r="I40" s="45">
         <v>3</v>
       </c>
-      <c r="J40" s="346" t="s">
+      <c r="J40" s="243" t="s">
         <v>185</v>
       </c>
-      <c r="K40" s="347"/>
+      <c r="K40" s="244"/>
       <c r="L40" s="56">
         <v>8</v>
       </c>
@@ -10684,36 +10687,36 @@
       <c r="X40" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Y40" s="355" t="s">
+      <c r="Y40" s="283" t="s">
         <v>116</v>
       </c>
-      <c r="Z40" s="194"/>
-      <c r="AA40" s="194"/>
-      <c r="AB40" s="194"/>
-      <c r="AC40" s="194"/>
-      <c r="AD40" s="194"/>
-      <c r="AE40" s="195"/>
+      <c r="Z40" s="246"/>
+      <c r="AA40" s="246"/>
+      <c r="AB40" s="246"/>
+      <c r="AC40" s="246"/>
+      <c r="AD40" s="246"/>
+      <c r="AE40" s="247"/>
     </row>
     <row r="41" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A41" s="330"/>
-      <c r="B41" s="356">
+      <c r="A41" s="315"/>
+      <c r="B41" s="284">
         <v>123444</v>
       </c>
-      <c r="C41" s="357"/>
-      <c r="D41" s="370" t="s">
+      <c r="C41" s="285"/>
+      <c r="D41" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="371"/>
-      <c r="F41" s="371"/>
-      <c r="G41" s="371"/>
-      <c r="H41" s="371"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="215"/>
       <c r="I41" s="7">
         <v>3</v>
       </c>
-      <c r="J41" s="381" t="s">
+      <c r="J41" s="239" t="s">
         <v>186</v>
       </c>
-      <c r="K41" s="382"/>
+      <c r="K41" s="240"/>
       <c r="L41" s="46">
         <v>10</v>
       </c>
@@ -10751,34 +10754,34 @@
       <c r="X41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y41" s="196" t="s">
+      <c r="Y41" s="216" t="s">
         <v>116</v>
       </c>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="197"/>
-      <c r="AB41" s="197"/>
-      <c r="AC41" s="197"/>
-      <c r="AD41" s="197"/>
-      <c r="AE41" s="198"/>
+      <c r="Z41" s="217"/>
+      <c r="AA41" s="217"/>
+      <c r="AB41" s="217"/>
+      <c r="AC41" s="217"/>
+      <c r="AD41" s="217"/>
+      <c r="AE41" s="218"/>
     </row>
     <row r="42" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A42" s="330"/>
-      <c r="B42" s="334">
+      <c r="A42" s="315"/>
+      <c r="B42" s="263">
         <v>122222</v>
       </c>
-      <c r="C42" s="335"/>
-      <c r="D42" s="262" t="s">
+      <c r="C42" s="264"/>
+      <c r="D42" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="263"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="263"/>
-      <c r="H42" s="263"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="213"/>
       <c r="I42" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J42" s="326"/>
-      <c r="K42" s="327"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="242"/>
       <c r="L42" s="50">
         <v>8</v>
       </c>
@@ -10818,28 +10821,28 @@
       <c r="X42" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="247" t="s">
+      <c r="Y42" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="Z42" s="248"/>
-      <c r="AA42" s="248"/>
-      <c r="AB42" s="248"/>
-      <c r="AC42" s="248"/>
-      <c r="AD42" s="248"/>
-      <c r="AE42" s="249"/>
+      <c r="Z42" s="208"/>
+      <c r="AA42" s="208"/>
+      <c r="AB42" s="208"/>
+      <c r="AC42" s="208"/>
+      <c r="AD42" s="208"/>
+      <c r="AE42" s="209"/>
     </row>
     <row r="43" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A43" s="330"/>
-      <c r="B43" s="340"/>
-      <c r="C43" s="341"/>
-      <c r="D43" s="400"/>
-      <c r="E43" s="401"/>
-      <c r="F43" s="401"/>
-      <c r="G43" s="401"/>
-      <c r="H43" s="401"/>
+      <c r="A43" s="315"/>
+      <c r="B43" s="265"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="268"/>
+      <c r="G43" s="268"/>
+      <c r="H43" s="268"/>
       <c r="I43" s="45"/>
-      <c r="J43" s="346"/>
-      <c r="K43" s="347"/>
+      <c r="J43" s="243"/>
+      <c r="K43" s="244"/>
       <c r="L43" s="65"/>
       <c r="M43" s="57" t="s">
         <v>10</v>
@@ -10865,26 +10868,26 @@
         <v>127</v>
       </c>
       <c r="X43" s="45"/>
-      <c r="Y43" s="403"/>
-      <c r="Z43" s="404"/>
-      <c r="AA43" s="404"/>
-      <c r="AB43" s="404"/>
-      <c r="AC43" s="404"/>
-      <c r="AD43" s="404"/>
-      <c r="AE43" s="405"/>
+      <c r="Y43" s="270"/>
+      <c r="Z43" s="271"/>
+      <c r="AA43" s="271"/>
+      <c r="AB43" s="271"/>
+      <c r="AC43" s="271"/>
+      <c r="AD43" s="271"/>
+      <c r="AE43" s="272"/>
     </row>
     <row r="44" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A44" s="330"/>
-      <c r="B44" s="406"/>
-      <c r="C44" s="303"/>
-      <c r="D44" s="336"/>
-      <c r="E44" s="337"/>
-      <c r="F44" s="337"/>
-      <c r="G44" s="337"/>
-      <c r="H44" s="337"/>
+      <c r="A44" s="315"/>
+      <c r="B44" s="273"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="325"/>
+      <c r="E44" s="326"/>
+      <c r="F44" s="326"/>
+      <c r="G44" s="326"/>
+      <c r="H44" s="326"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="381"/>
-      <c r="K44" s="382"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="240"/>
       <c r="L44" s="63"/>
       <c r="M44" s="3" t="s">
         <v>10</v>
@@ -10910,26 +10913,26 @@
         <v>127</v>
       </c>
       <c r="X44" s="7"/>
-      <c r="Y44" s="302"/>
-      <c r="Z44" s="316"/>
-      <c r="AA44" s="316"/>
-      <c r="AB44" s="316"/>
-      <c r="AC44" s="316"/>
-      <c r="AD44" s="316"/>
-      <c r="AE44" s="410"/>
+      <c r="Y44" s="278"/>
+      <c r="Z44" s="279"/>
+      <c r="AA44" s="279"/>
+      <c r="AB44" s="279"/>
+      <c r="AC44" s="279"/>
+      <c r="AD44" s="279"/>
+      <c r="AE44" s="280"/>
     </row>
     <row r="45" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A45" s="330"/>
-      <c r="B45" s="338"/>
-      <c r="C45" s="339"/>
-      <c r="D45" s="407"/>
-      <c r="E45" s="408"/>
-      <c r="F45" s="408"/>
-      <c r="G45" s="408"/>
-      <c r="H45" s="409"/>
+      <c r="A45" s="315"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="327"/>
+      <c r="D45" s="275"/>
+      <c r="E45" s="276"/>
+      <c r="F45" s="276"/>
+      <c r="G45" s="276"/>
+      <c r="H45" s="277"/>
       <c r="I45" s="67"/>
-      <c r="J45" s="326"/>
-      <c r="K45" s="327"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="242"/>
       <c r="L45" s="73"/>
       <c r="M45" s="51" t="s">
         <v>10</v>
@@ -10955,26 +10958,26 @@
         <v>127</v>
       </c>
       <c r="X45" s="75"/>
-      <c r="Y45" s="259"/>
-      <c r="Z45" s="260"/>
-      <c r="AA45" s="260"/>
-      <c r="AB45" s="260"/>
-      <c r="AC45" s="260"/>
-      <c r="AD45" s="260"/>
-      <c r="AE45" s="261"/>
+      <c r="Y45" s="397"/>
+      <c r="Z45" s="189"/>
+      <c r="AA45" s="189"/>
+      <c r="AB45" s="189"/>
+      <c r="AC45" s="189"/>
+      <c r="AD45" s="189"/>
+      <c r="AE45" s="398"/>
     </row>
     <row r="46" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A46" s="330"/>
-      <c r="B46" s="340"/>
-      <c r="C46" s="341"/>
-      <c r="D46" s="400"/>
-      <c r="E46" s="401"/>
-      <c r="F46" s="401"/>
-      <c r="G46" s="401"/>
-      <c r="H46" s="402"/>
+      <c r="A46" s="315"/>
+      <c r="B46" s="265"/>
+      <c r="C46" s="266"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="268"/>
+      <c r="F46" s="268"/>
+      <c r="G46" s="268"/>
+      <c r="H46" s="269"/>
       <c r="I46" s="68"/>
-      <c r="J46" s="346"/>
-      <c r="K46" s="347"/>
+      <c r="J46" s="243"/>
+      <c r="K46" s="244"/>
       <c r="L46" s="65"/>
       <c r="M46" s="57" t="s">
         <v>10</v>
@@ -11000,26 +11003,26 @@
         <v>127</v>
       </c>
       <c r="X46" s="76"/>
-      <c r="Y46" s="403"/>
-      <c r="Z46" s="404"/>
-      <c r="AA46" s="404"/>
-      <c r="AB46" s="404"/>
-      <c r="AC46" s="404"/>
-      <c r="AD46" s="404"/>
-      <c r="AE46" s="405"/>
+      <c r="Y46" s="270"/>
+      <c r="Z46" s="271"/>
+      <c r="AA46" s="271"/>
+      <c r="AB46" s="271"/>
+      <c r="AC46" s="271"/>
+      <c r="AD46" s="271"/>
+      <c r="AE46" s="272"/>
     </row>
     <row r="47" spans="1:31" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A47" s="331"/>
-      <c r="B47" s="388"/>
-      <c r="C47" s="392"/>
-      <c r="D47" s="393"/>
-      <c r="E47" s="394"/>
-      <c r="F47" s="394"/>
-      <c r="G47" s="394"/>
-      <c r="H47" s="394"/>
+      <c r="A47" s="316"/>
+      <c r="B47" s="250"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="255"/>
+      <c r="E47" s="256"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="256"/>
+      <c r="H47" s="256"/>
       <c r="I47" s="34"/>
-      <c r="J47" s="411"/>
-      <c r="K47" s="412"/>
+      <c r="J47" s="281"/>
+      <c r="K47" s="282"/>
       <c r="L47" s="69"/>
       <c r="M47" s="70" t="s">
         <v>10</v>
@@ -11045,50 +11048,50 @@
         <v>127</v>
       </c>
       <c r="X47" s="34"/>
-      <c r="Y47" s="395"/>
-      <c r="Z47" s="389"/>
-      <c r="AA47" s="389"/>
-      <c r="AB47" s="389"/>
-      <c r="AC47" s="389"/>
-      <c r="AD47" s="389"/>
-      <c r="AE47" s="396"/>
+      <c r="Y47" s="257"/>
+      <c r="Z47" s="251"/>
+      <c r="AA47" s="251"/>
+      <c r="AB47" s="251"/>
+      <c r="AC47" s="251"/>
+      <c r="AD47" s="251"/>
+      <c r="AE47" s="258"/>
     </row>
     <row r="48" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="397"/>
-      <c r="C48" s="397"/>
-      <c r="D48" s="398" t="s">
+      <c r="B48" s="260"/>
+      <c r="C48" s="260"/>
+      <c r="D48" s="261" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="398"/>
-      <c r="F48" s="398"/>
-      <c r="G48" s="398"/>
-      <c r="H48" s="398"/>
-      <c r="I48" s="398"/>
-      <c r="J48" s="398"/>
-      <c r="K48" s="398"/>
-      <c r="L48" s="398"/>
-      <c r="M48" s="398"/>
-      <c r="N48" s="398"/>
-      <c r="O48" s="398"/>
-      <c r="P48" s="398"/>
-      <c r="Q48" s="398"/>
-      <c r="R48" s="398"/>
-      <c r="S48" s="398"/>
-      <c r="T48" s="398"/>
-      <c r="U48" s="398"/>
-      <c r="V48" s="398"/>
-      <c r="W48" s="398"/>
-      <c r="X48" s="398"/>
-      <c r="Y48" s="398"/>
-      <c r="Z48" s="398"/>
-      <c r="AA48" s="398"/>
-      <c r="AB48" s="398"/>
-      <c r="AC48" s="398"/>
-      <c r="AD48" s="398"/>
-      <c r="AE48" s="399"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="261"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="261"/>
+      <c r="I48" s="261"/>
+      <c r="J48" s="261"/>
+      <c r="K48" s="261"/>
+      <c r="L48" s="261"/>
+      <c r="M48" s="261"/>
+      <c r="N48" s="261"/>
+      <c r="O48" s="261"/>
+      <c r="P48" s="261"/>
+      <c r="Q48" s="261"/>
+      <c r="R48" s="261"/>
+      <c r="S48" s="261"/>
+      <c r="T48" s="261"/>
+      <c r="U48" s="261"/>
+      <c r="V48" s="261"/>
+      <c r="W48" s="261"/>
+      <c r="X48" s="261"/>
+      <c r="Y48" s="261"/>
+      <c r="Z48" s="261"/>
+      <c r="AA48" s="261"/>
+      <c r="AB48" s="261"/>
+      <c r="AC48" s="261"/>
+      <c r="AD48" s="261"/>
+      <c r="AE48" s="262"/>
     </row>
     <row r="49" spans="1:31" ht="25.5" customHeight="1">
       <c r="A49" s="37"/>
@@ -11126,85 +11129,85 @@
       <c r="AE49" s="36"/>
     </row>
     <row r="50" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A50" s="338" t="s">
+      <c r="A50" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="260"/>
-      <c r="C50" s="260"/>
-      <c r="D50" s="260"/>
-      <c r="E50" s="260"/>
-      <c r="F50" s="260"/>
-      <c r="G50" s="414" t="s">
+      <c r="B50" s="189"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="189"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="189"/>
+      <c r="G50" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="414"/>
-      <c r="I50" s="414"/>
-      <c r="J50" s="414"/>
-      <c r="K50" s="414"/>
-      <c r="L50" s="414"/>
-      <c r="M50" s="414"/>
-      <c r="N50" s="414"/>
-      <c r="O50" s="414"/>
-      <c r="P50" s="414"/>
-      <c r="Q50" s="414"/>
-      <c r="R50" s="414"/>
-      <c r="S50" s="414"/>
-      <c r="T50" s="414"/>
-      <c r="U50" s="414"/>
-      <c r="V50" s="414"/>
-      <c r="W50" s="414"/>
-      <c r="X50" s="414"/>
-      <c r="Y50" s="414"/>
-      <c r="Z50" s="414"/>
-      <c r="AA50" s="414"/>
-      <c r="AB50" s="414"/>
-      <c r="AC50" s="414"/>
-      <c r="AD50" s="414"/>
-      <c r="AE50" s="415"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="190"/>
+      <c r="K50" s="190"/>
+      <c r="L50" s="190"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="190"/>
+      <c r="O50" s="190"/>
+      <c r="P50" s="190"/>
+      <c r="Q50" s="190"/>
+      <c r="R50" s="190"/>
+      <c r="S50" s="190"/>
+      <c r="T50" s="190"/>
+      <c r="U50" s="190"/>
+      <c r="V50" s="190"/>
+      <c r="W50" s="190"/>
+      <c r="X50" s="190"/>
+      <c r="Y50" s="190"/>
+      <c r="Z50" s="190"/>
+      <c r="AA50" s="190"/>
+      <c r="AB50" s="190"/>
+      <c r="AC50" s="190"/>
+      <c r="AD50" s="190"/>
+      <c r="AE50" s="191"/>
     </row>
     <row r="51" spans="1:31" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A51" s="388" t="s">
+      <c r="A51" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="389"/>
-      <c r="C51" s="389"/>
-      <c r="D51" s="389"/>
-      <c r="E51" s="389"/>
-      <c r="F51" s="389"/>
-      <c r="G51" s="390" t="s">
+      <c r="B51" s="251"/>
+      <c r="C51" s="251"/>
+      <c r="D51" s="251"/>
+      <c r="E51" s="251"/>
+      <c r="F51" s="251"/>
+      <c r="G51" s="252" t="s">
         <v>51</v>
       </c>
-      <c r="H51" s="390"/>
-      <c r="I51" s="390"/>
-      <c r="J51" s="390"/>
-      <c r="K51" s="390"/>
-      <c r="L51" s="390"/>
-      <c r="M51" s="390"/>
-      <c r="N51" s="390"/>
-      <c r="O51" s="390"/>
-      <c r="P51" s="390"/>
-      <c r="Q51" s="390"/>
-      <c r="R51" s="390"/>
-      <c r="S51" s="390"/>
-      <c r="T51" s="390"/>
-      <c r="U51" s="390"/>
-      <c r="V51" s="390"/>
-      <c r="W51" s="390"/>
-      <c r="X51" s="390"/>
-      <c r="Y51" s="390"/>
-      <c r="Z51" s="390"/>
-      <c r="AA51" s="390"/>
-      <c r="AB51" s="390"/>
-      <c r="AC51" s="390"/>
-      <c r="AD51" s="390"/>
-      <c r="AE51" s="391"/>
+      <c r="H51" s="252"/>
+      <c r="I51" s="252"/>
+      <c r="J51" s="252"/>
+      <c r="K51" s="252"/>
+      <c r="L51" s="252"/>
+      <c r="M51" s="252"/>
+      <c r="N51" s="252"/>
+      <c r="O51" s="252"/>
+      <c r="P51" s="252"/>
+      <c r="Q51" s="252"/>
+      <c r="R51" s="252"/>
+      <c r="S51" s="252"/>
+      <c r="T51" s="252"/>
+      <c r="U51" s="252"/>
+      <c r="V51" s="252"/>
+      <c r="W51" s="252"/>
+      <c r="X51" s="252"/>
+      <c r="Y51" s="252"/>
+      <c r="Z51" s="252"/>
+      <c r="AA51" s="252"/>
+      <c r="AB51" s="252"/>
+      <c r="AC51" s="252"/>
+      <c r="AD51" s="252"/>
+      <c r="AE51" s="253"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="307" t="s">
+      <c r="A53" s="385" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="307"/>
-      <c r="C53" s="307"/>
+      <c r="B53" s="385"/>
+      <c r="C53" s="385"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -11585,39 +11588,39 @@
       <c r="W65" s="18"/>
     </row>
     <row r="66" spans="1:31" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A66" s="284" t="s">
+      <c r="A66" s="363" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="285"/>
-      <c r="C66" s="285"/>
-      <c r="D66" s="285"/>
-      <c r="E66" s="285"/>
-      <c r="F66" s="285"/>
-      <c r="G66" s="285"/>
-      <c r="H66" s="285"/>
-      <c r="I66" s="285"/>
-      <c r="J66" s="285"/>
-      <c r="K66" s="285"/>
-      <c r="L66" s="285"/>
-      <c r="M66" s="285"/>
-      <c r="N66" s="285"/>
-      <c r="O66" s="285"/>
-      <c r="P66" s="285"/>
-      <c r="Q66" s="285"/>
-      <c r="R66" s="285"/>
-      <c r="S66" s="285"/>
-      <c r="T66" s="285"/>
-      <c r="U66" s="285"/>
-      <c r="V66" s="285"/>
-      <c r="W66" s="285"/>
-      <c r="X66" s="285"/>
-      <c r="Y66" s="285"/>
-      <c r="Z66" s="285"/>
-      <c r="AA66" s="285"/>
-      <c r="AB66" s="285"/>
-      <c r="AC66" s="285"/>
-      <c r="AD66" s="285"/>
-      <c r="AE66" s="286"/>
+      <c r="B66" s="364"/>
+      <c r="C66" s="364"/>
+      <c r="D66" s="364"/>
+      <c r="E66" s="364"/>
+      <c r="F66" s="364"/>
+      <c r="G66" s="364"/>
+      <c r="H66" s="364"/>
+      <c r="I66" s="364"/>
+      <c r="J66" s="364"/>
+      <c r="K66" s="364"/>
+      <c r="L66" s="364"/>
+      <c r="M66" s="364"/>
+      <c r="N66" s="364"/>
+      <c r="O66" s="364"/>
+      <c r="P66" s="364"/>
+      <c r="Q66" s="364"/>
+      <c r="R66" s="364"/>
+      <c r="S66" s="364"/>
+      <c r="T66" s="364"/>
+      <c r="U66" s="364"/>
+      <c r="V66" s="364"/>
+      <c r="W66" s="364"/>
+      <c r="X66" s="364"/>
+      <c r="Y66" s="364"/>
+      <c r="Z66" s="364"/>
+      <c r="AA66" s="364"/>
+      <c r="AB66" s="364"/>
+      <c r="AC66" s="364"/>
+      <c r="AD66" s="364"/>
+      <c r="AE66" s="365"/>
     </row>
     <row r="67" spans="1:31" ht="9" customHeight="1" thickTop="1">
       <c r="A67" s="41"/>
@@ -11668,21 +11671,21 @@
       <c r="P68" s="82"/>
       <c r="Q68" s="82"/>
       <c r="R68" s="82"/>
-      <c r="S68" s="265" t="s">
+      <c r="S68" s="366" t="s">
         <v>103</v>
       </c>
-      <c r="T68" s="265"/>
-      <c r="U68" s="265"/>
+      <c r="T68" s="366"/>
+      <c r="U68" s="366"/>
       <c r="V68" s="89"/>
       <c r="W68" s="89"/>
       <c r="X68" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="Y68" s="266"/>
-      <c r="Z68" s="266"/>
-      <c r="AA68" s="266"/>
-      <c r="AB68" s="266"/>
-      <c r="AC68" s="266"/>
+      <c r="Y68" s="367"/>
+      <c r="Z68" s="367"/>
+      <c r="AA68" s="367"/>
+      <c r="AB68" s="367"/>
+      <c r="AC68" s="367"/>
       <c r="AD68" s="90" t="s">
         <v>83</v>
       </c>
@@ -11700,20 +11703,20 @@
       <c r="E69" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="269"/>
-      <c r="G69" s="269"/>
-      <c r="H69" s="269"/>
-      <c r="I69" s="269"/>
+      <c r="F69" s="402"/>
+      <c r="G69" s="402"/>
+      <c r="H69" s="402"/>
+      <c r="I69" s="402"/>
       <c r="J69" s="89" t="s">
         <v>84</v>
       </c>
       <c r="K69" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="L69" s="269"/>
-      <c r="M69" s="269"/>
-      <c r="N69" s="269"/>
-      <c r="O69" s="269"/>
+      <c r="L69" s="402"/>
+      <c r="M69" s="402"/>
+      <c r="N69" s="402"/>
+      <c r="O69" s="402"/>
       <c r="P69" s="85" t="s">
         <v>83</v>
       </c>
@@ -11721,21 +11724,21 @@
         <v>45</v>
       </c>
       <c r="R69" s="82"/>
-      <c r="S69" s="264" t="s">
+      <c r="S69" s="399" t="s">
         <v>104</v>
       </c>
-      <c r="T69" s="265"/>
-      <c r="U69" s="265"/>
+      <c r="T69" s="366"/>
+      <c r="U69" s="366"/>
       <c r="V69" s="89"/>
       <c r="W69" s="89"/>
       <c r="X69" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="Y69" s="266"/>
-      <c r="Z69" s="266"/>
-      <c r="AA69" s="266"/>
-      <c r="AB69" s="266"/>
-      <c r="AC69" s="266"/>
+      <c r="Y69" s="367"/>
+      <c r="Z69" s="367"/>
+      <c r="AA69" s="367"/>
+      <c r="AB69" s="367"/>
+      <c r="AC69" s="367"/>
       <c r="AD69" s="90" t="s">
         <v>83</v>
       </c>
@@ -11772,21 +11775,21 @@
       <c r="P70" s="82"/>
       <c r="Q70" s="82"/>
       <c r="R70" s="82"/>
-      <c r="S70" s="264" t="s">
+      <c r="S70" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="T70" s="265"/>
-      <c r="U70" s="265"/>
+      <c r="T70" s="366"/>
+      <c r="U70" s="366"/>
       <c r="V70" s="89"/>
       <c r="W70" s="89"/>
       <c r="X70" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="Y70" s="266"/>
-      <c r="Z70" s="266"/>
-      <c r="AA70" s="266"/>
-      <c r="AB70" s="266"/>
-      <c r="AC70" s="266"/>
+      <c r="Y70" s="367"/>
+      <c r="Z70" s="367"/>
+      <c r="AA70" s="367"/>
+      <c r="AB70" s="367"/>
+      <c r="AC70" s="367"/>
       <c r="AD70" s="90" t="s">
         <v>83</v>
       </c>
@@ -11803,12 +11806,12 @@
       <c r="D71" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="243"/>
-      <c r="F71" s="243"/>
-      <c r="G71" s="243"/>
-      <c r="H71" s="243"/>
-      <c r="I71" s="243"/>
-      <c r="J71" s="243"/>
+      <c r="E71" s="386"/>
+      <c r="F71" s="386"/>
+      <c r="G71" s="386"/>
+      <c r="H71" s="386"/>
+      <c r="I71" s="386"/>
+      <c r="J71" s="386"/>
       <c r="K71" s="86" t="s">
         <v>45</v>
       </c>
@@ -11819,21 +11822,21 @@
       <c r="P71" s="84"/>
       <c r="Q71" s="84"/>
       <c r="R71" s="84"/>
-      <c r="S71" s="244" t="s">
+      <c r="S71" s="387" t="s">
         <v>106</v>
       </c>
-      <c r="T71" s="245"/>
-      <c r="U71" s="245"/>
+      <c r="T71" s="388"/>
+      <c r="U71" s="388"/>
       <c r="V71" s="87"/>
       <c r="W71" s="87"/>
       <c r="X71" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="Y71" s="246"/>
-      <c r="Z71" s="246"/>
-      <c r="AA71" s="246"/>
-      <c r="AB71" s="246"/>
-      <c r="AC71" s="246"/>
+      <c r="Y71" s="389"/>
+      <c r="Z71" s="389"/>
+      <c r="AA71" s="389"/>
+      <c r="AB71" s="389"/>
+      <c r="AC71" s="389"/>
       <c r="AD71" s="88" t="s">
         <v>83</v>
       </c>
@@ -11842,6 +11845,165 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="183">
+    <mergeCell ref="AA23:AE24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="Y37:AE37"/>
+    <mergeCell ref="Y38:AE38"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="Y35:AE35"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:AE28"/>
+    <mergeCell ref="U19:AE19"/>
+    <mergeCell ref="Y32:AE32"/>
+    <mergeCell ref="U22:AE22"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="U20:AE20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AA25:AE26"/>
+    <mergeCell ref="D20:R20"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="Y71:AC71"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Y31:AE31"/>
+    <mergeCell ref="Y45:AE45"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="Y70:AC70"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="Y69:AC69"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Y36:AE36"/>
+    <mergeCell ref="T31:W32"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="A66:AE66"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="Y68:AC68"/>
+    <mergeCell ref="T5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="A12:AE12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AE15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="H26:W26"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="A31:A47"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:S32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C21:R21"/>
+    <mergeCell ref="Y40:AE40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="A27:D29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:AE51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="Y47:AE47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:AE48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="Y42:AE42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="Y46:AE46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="Y44:AE44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="Y43:AE43"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="G50:AE50"/>
@@ -11866,165 +12028,6 @@
     <mergeCell ref="Y34:AE34"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="O19:R19"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:AE51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="Y47:AE47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:AE48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="Y42:AE42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="Y46:AE46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="Y44:AE44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="Y43:AE43"/>
-    <mergeCell ref="Y40:AE40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="H25:P25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="A27:D29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="A31:A47"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:S32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C21:R21"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="H26:W26"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="T31:W32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="A66:AE66"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="Y68:AC68"/>
-    <mergeCell ref="T5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="A12:AE12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AE15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="Y71:AC71"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="J31:S31"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Y31:AE31"/>
-    <mergeCell ref="Y45:AE45"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="Y70:AC70"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="Y69:AC69"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Y36:AE36"/>
-    <mergeCell ref="AA23:AE24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="Y37:AE37"/>
-    <mergeCell ref="Y38:AE38"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="Y35:AE35"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:AE28"/>
-    <mergeCell ref="U19:AE19"/>
-    <mergeCell ref="Y32:AE32"/>
-    <mergeCell ref="U22:AE22"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="U20:AE20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AA25:AE26"/>
-    <mergeCell ref="D20:R20"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="13">
@@ -12080,8 +12083,8 @@
   </sheetPr>
   <dimension ref="A1:BZ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33:AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="12"/>
@@ -12130,10 +12133,10 @@
       <c r="E2" s="19"/>
       <c r="F2" s="165"/>
       <c r="G2" s="19"/>
-      <c r="U2" s="526" t="s">
+      <c r="U2" s="445" t="s">
         <v>109</v>
       </c>
-      <c r="V2" s="527" t="s">
+      <c r="V2" s="447" t="s">
         <v>161</v>
       </c>
       <c r="W2" s="156" t="s">
@@ -12143,13 +12146,13 @@
         <v>162</v>
       </c>
       <c r="Y2" s="158"/>
-      <c r="Z2" s="529" t="s">
+      <c r="Z2" s="449" t="s">
         <v>80</v>
       </c>
-      <c r="AA2" s="531" t="s">
+      <c r="AA2" s="451" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" s="532"/>
+      <c r="AB2" s="452"/>
       <c r="AC2" s="156" t="s">
         <v>109</v>
       </c>
@@ -12161,18 +12164,18 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="T3" s="107"/>
-      <c r="U3" s="515"/>
-      <c r="V3" s="528"/>
+      <c r="U3" s="446"/>
+      <c r="V3" s="448"/>
       <c r="W3" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="X3" s="533" t="s">
+      <c r="X3" s="453" t="s">
         <v>166</v>
       </c>
-      <c r="Y3" s="534"/>
-      <c r="Z3" s="530"/>
-      <c r="AA3" s="533"/>
-      <c r="AB3" s="534"/>
+      <c r="Y3" s="454"/>
+      <c r="Z3" s="450"/>
+      <c r="AA3" s="453"/>
+      <c r="AB3" s="454"/>
       <c r="AC3" s="161" t="s">
         <v>80</v>
       </c>
@@ -12186,39 +12189,39 @@
       <c r="B4" s="163"/>
       <c r="C4" s="143"/>
       <c r="D4" s="144"/>
-      <c r="E4" s="535" t="s">
+      <c r="E4" s="455" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="535"/>
-      <c r="G4" s="535"/>
-      <c r="H4" s="535"/>
-      <c r="I4" s="535"/>
-      <c r="J4" s="535"/>
-      <c r="K4" s="535"/>
-      <c r="L4" s="535"/>
-      <c r="M4" s="535"/>
-      <c r="N4" s="535"/>
-      <c r="O4" s="535"/>
-      <c r="P4" s="535"/>
-      <c r="Q4" s="535"/>
-      <c r="R4" s="535"/>
-      <c r="S4" s="535"/>
-      <c r="U4" s="542" t="s">
+      <c r="F4" s="455"/>
+      <c r="G4" s="455"/>
+      <c r="H4" s="455"/>
+      <c r="I4" s="455"/>
+      <c r="J4" s="455"/>
+      <c r="K4" s="455"/>
+      <c r="L4" s="455"/>
+      <c r="M4" s="455"/>
+      <c r="N4" s="455"/>
+      <c r="O4" s="455"/>
+      <c r="P4" s="455"/>
+      <c r="Q4" s="455"/>
+      <c r="R4" s="455"/>
+      <c r="S4" s="455"/>
+      <c r="U4" s="467" t="s">
         <v>172</v>
       </c>
-      <c r="V4" s="543"/>
-      <c r="W4" s="543"/>
-      <c r="X4" s="544"/>
-      <c r="Y4" s="545" t="s">
+      <c r="V4" s="468"/>
+      <c r="W4" s="468"/>
+      <c r="X4" s="469"/>
+      <c r="Y4" s="470" t="s">
         <v>108</v>
       </c>
-      <c r="Z4" s="546"/>
-      <c r="AA4" s="547"/>
-      <c r="AB4" s="543"/>
-      <c r="AC4" s="543"/>
-      <c r="AD4" s="543"/>
-      <c r="AE4" s="543"/>
-      <c r="AF4" s="544"/>
+      <c r="Z4" s="471"/>
+      <c r="AA4" s="472"/>
+      <c r="AB4" s="468"/>
+      <c r="AC4" s="468"/>
+      <c r="AD4" s="468"/>
+      <c r="AE4" s="468"/>
+      <c r="AF4" s="469"/>
     </row>
     <row r="5" spans="1:32" ht="23.25" customHeight="1" thickBot="1">
       <c r="U5" s="171" t="s">
@@ -12233,16 +12236,16 @@
       <c r="X5" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" s="548" t="s">
+      <c r="Y5" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" s="549"/>
-      <c r="AA5" s="512"/>
-      <c r="AB5" s="513"/>
-      <c r="AC5" s="513"/>
-      <c r="AD5" s="513"/>
-      <c r="AE5" s="513"/>
-      <c r="AF5" s="514"/>
+      <c r="Z5" s="474"/>
+      <c r="AA5" s="475"/>
+      <c r="AB5" s="476"/>
+      <c r="AC5" s="476"/>
+      <c r="AD5" s="476"/>
+      <c r="AE5" s="476"/>
+      <c r="AF5" s="477"/>
     </row>
     <row r="6" spans="1:32" ht="23.25" customHeight="1" thickBot="1">
       <c r="B6" s="163" t="s">
@@ -12252,20 +12255,20 @@
       <c r="D6" s="144"/>
       <c r="E6" s="144"/>
       <c r="F6" s="144"/>
-      <c r="U6" s="515" t="s">
+      <c r="U6" s="446" t="s">
         <v>153</v>
       </c>
-      <c r="V6" s="516"/>
-      <c r="W6" s="516"/>
-      <c r="X6" s="516"/>
-      <c r="Y6" s="516"/>
-      <c r="Z6" s="517"/>
-      <c r="AA6" s="518"/>
-      <c r="AB6" s="519"/>
-      <c r="AC6" s="519"/>
-      <c r="AD6" s="519"/>
-      <c r="AE6" s="519"/>
-      <c r="AF6" s="520"/>
+      <c r="V6" s="478"/>
+      <c r="W6" s="478"/>
+      <c r="X6" s="478"/>
+      <c r="Y6" s="478"/>
+      <c r="Z6" s="479"/>
+      <c r="AA6" s="480"/>
+      <c r="AB6" s="481"/>
+      <c r="AC6" s="481"/>
+      <c r="AD6" s="481"/>
+      <c r="AE6" s="481"/>
+      <c r="AF6" s="482"/>
     </row>
     <row r="7" spans="1:32" ht="25.5" customHeight="1">
       <c r="H7" s="6"/>
@@ -12276,16 +12279,16 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="521" t="s">
+      <c r="Y7" s="483" t="s">
         <v>95</v>
       </c>
-      <c r="Z7" s="521"/>
-      <c r="AA7" s="522"/>
-      <c r="AB7" s="522"/>
-      <c r="AC7" s="522"/>
-      <c r="AD7" s="522"/>
-      <c r="AE7" s="522"/>
-      <c r="AF7" s="522"/>
+      <c r="Z7" s="483"/>
+      <c r="AA7" s="484"/>
+      <c r="AB7" s="484"/>
+      <c r="AC7" s="484"/>
+      <c r="AD7" s="484"/>
+      <c r="AE7" s="484"/>
+      <c r="AF7" s="484"/>
     </row>
     <row r="8" spans="1:32" ht="18" customHeight="1">
       <c r="A8" s="6"/>
@@ -12339,11 +12342,11 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="Q9" s="313" t="s">
+      <c r="Q9" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="R9" s="313"/>
-      <c r="S9" s="313"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -12374,24 +12377,24 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="R10" s="314" t="s">
+      <c r="R10" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="314"/>
-      <c r="T10" s="314"/>
-      <c r="U10" s="502"/>
-      <c r="V10" s="502"/>
-      <c r="W10" s="502"/>
-      <c r="X10" s="502"/>
-      <c r="Y10" s="502"/>
-      <c r="Z10" s="502"/>
-      <c r="AA10" s="502"/>
-      <c r="AB10" s="502"/>
-      <c r="AC10" s="502"/>
-      <c r="AD10" s="536" t="s">
+      <c r="S10" s="348"/>
+      <c r="T10" s="348"/>
+      <c r="U10" s="457"/>
+      <c r="V10" s="457"/>
+      <c r="W10" s="457"/>
+      <c r="X10" s="457"/>
+      <c r="Y10" s="457"/>
+      <c r="Z10" s="457"/>
+      <c r="AA10" s="457"/>
+      <c r="AB10" s="457"/>
+      <c r="AC10" s="457"/>
+      <c r="AD10" s="461" t="s">
         <v>113</v>
       </c>
-      <c r="AE10" s="536"/>
+      <c r="AE10" s="461"/>
       <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:32" ht="11.25" customHeight="1">
@@ -12567,40 +12570,40 @@
       <c r="AF15" s="6"/>
     </row>
     <row r="16" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A16" s="306" t="s">
+      <c r="A16" s="384" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="306"/>
-      <c r="C16" s="306"/>
-      <c r="D16" s="306"/>
-      <c r="E16" s="306"/>
-      <c r="F16" s="306"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="306"/>
-      <c r="I16" s="306"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
-      <c r="M16" s="306"/>
-      <c r="N16" s="306"/>
-      <c r="O16" s="306"/>
-      <c r="P16" s="306"/>
-      <c r="Q16" s="306"/>
-      <c r="R16" s="306"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="306"/>
-      <c r="V16" s="306"/>
-      <c r="W16" s="306"/>
-      <c r="X16" s="306"/>
-      <c r="Y16" s="306"/>
-      <c r="Z16" s="306"/>
-      <c r="AA16" s="306"/>
-      <c r="AB16" s="306"/>
-      <c r="AC16" s="306"/>
-      <c r="AD16" s="306"/>
-      <c r="AE16" s="306"/>
-      <c r="AF16" s="306"/>
+      <c r="B16" s="384"/>
+      <c r="C16" s="384"/>
+      <c r="D16" s="384"/>
+      <c r="E16" s="384"/>
+      <c r="F16" s="384"/>
+      <c r="G16" s="384"/>
+      <c r="H16" s="384"/>
+      <c r="I16" s="384"/>
+      <c r="J16" s="384"/>
+      <c r="K16" s="384"/>
+      <c r="L16" s="384"/>
+      <c r="M16" s="384"/>
+      <c r="N16" s="384"/>
+      <c r="O16" s="384"/>
+      <c r="P16" s="384"/>
+      <c r="Q16" s="384"/>
+      <c r="R16" s="384"/>
+      <c r="S16" s="384"/>
+      <c r="T16" s="384"/>
+      <c r="U16" s="384"/>
+      <c r="V16" s="384"/>
+      <c r="W16" s="384"/>
+      <c r="X16" s="384"/>
+      <c r="Y16" s="384"/>
+      <c r="Z16" s="384"/>
+      <c r="AA16" s="384"/>
+      <c r="AB16" s="384"/>
+      <c r="AC16" s="384"/>
+      <c r="AD16" s="384"/>
+      <c r="AE16" s="384"/>
+      <c r="AF16" s="384"/>
     </row>
     <row r="17" spans="1:36" ht="7.5" customHeight="1" thickBot="1">
       <c r="A17" s="15"/>
@@ -12637,637 +12640,637 @@
       <c r="AF17" s="15"/>
     </row>
     <row r="18" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A18" s="290" t="s">
+      <c r="A18" s="317" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="276"/>
-      <c r="C18" s="537"/>
-      <c r="D18" s="538"/>
-      <c r="E18" s="538"/>
-      <c r="F18" s="538"/>
-      <c r="G18" s="538"/>
-      <c r="H18" s="538"/>
-      <c r="I18" s="538"/>
-      <c r="J18" s="538"/>
-      <c r="K18" s="538"/>
-      <c r="L18" s="538"/>
-      <c r="M18" s="538"/>
-      <c r="N18" s="539" t="s">
+      <c r="B18" s="318"/>
+      <c r="C18" s="462"/>
+      <c r="D18" s="463"/>
+      <c r="E18" s="463"/>
+      <c r="F18" s="463"/>
+      <c r="G18" s="463"/>
+      <c r="H18" s="463"/>
+      <c r="I18" s="463"/>
+      <c r="J18" s="463"/>
+      <c r="K18" s="463"/>
+      <c r="L18" s="463"/>
+      <c r="M18" s="463"/>
+      <c r="N18" s="464" t="s">
         <v>113</v>
       </c>
-      <c r="O18" s="539"/>
-      <c r="P18" s="256" t="s">
+      <c r="O18" s="464"/>
+      <c r="P18" s="319" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="276"/>
-      <c r="R18" s="541"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="291" t="s">
+      <c r="Q18" s="318"/>
+      <c r="R18" s="466"/>
+      <c r="S18" s="378"/>
+      <c r="T18" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="292"/>
-      <c r="V18" s="523"/>
-      <c r="W18" s="524"/>
-      <c r="X18" s="524"/>
-      <c r="Y18" s="524"/>
-      <c r="Z18" s="524"/>
-      <c r="AA18" s="524"/>
-      <c r="AB18" s="524"/>
+      <c r="U18" s="371"/>
+      <c r="V18" s="489"/>
+      <c r="W18" s="490"/>
+      <c r="X18" s="490"/>
+      <c r="Y18" s="490"/>
+      <c r="Z18" s="490"/>
+      <c r="AA18" s="490"/>
+      <c r="AB18" s="490"/>
       <c r="AC18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AD18" s="525" t="str">
+      <c r="AD18" s="491" t="str">
         <f ca="1">IF(V18="","",TODAY()-V18)</f>
         <v/>
       </c>
-      <c r="AE18" s="525"/>
+      <c r="AE18" s="491"/>
       <c r="AF18" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="25.5" customHeight="1">
-      <c r="A19" s="296" t="s">
+      <c r="A19" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="279"/>
-      <c r="C19" s="501"/>
-      <c r="D19" s="502"/>
-      <c r="E19" s="502"/>
-      <c r="F19" s="502"/>
-      <c r="G19" s="502"/>
-      <c r="H19" s="502"/>
-      <c r="I19" s="502"/>
-      <c r="J19" s="502"/>
-      <c r="K19" s="502"/>
-      <c r="L19" s="502"/>
-      <c r="M19" s="502"/>
-      <c r="N19" s="540"/>
-      <c r="O19" s="540"/>
-      <c r="P19" s="277"/>
-      <c r="Q19" s="279"/>
-      <c r="R19" s="302"/>
-      <c r="S19" s="303"/>
-      <c r="T19" s="297" t="s">
+      <c r="B19" s="193"/>
+      <c r="C19" s="456"/>
+      <c r="D19" s="457"/>
+      <c r="E19" s="457"/>
+      <c r="F19" s="457"/>
+      <c r="G19" s="457"/>
+      <c r="H19" s="457"/>
+      <c r="I19" s="457"/>
+      <c r="J19" s="457"/>
+      <c r="K19" s="457"/>
+      <c r="L19" s="457"/>
+      <c r="M19" s="457"/>
+      <c r="N19" s="465"/>
+      <c r="O19" s="465"/>
+      <c r="P19" s="321"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="274"/>
+      <c r="T19" s="330" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="271"/>
-      <c r="V19" s="507"/>
-      <c r="W19" s="508"/>
-      <c r="X19" s="508"/>
-      <c r="Y19" s="508"/>
-      <c r="Z19" s="508"/>
-      <c r="AA19" s="508"/>
-      <c r="AB19" s="508"/>
-      <c r="AC19" s="508"/>
-      <c r="AD19" s="508"/>
-      <c r="AE19" s="508"/>
-      <c r="AF19" s="509"/>
+      <c r="U19" s="331"/>
+      <c r="V19" s="458"/>
+      <c r="W19" s="459"/>
+      <c r="X19" s="459"/>
+      <c r="Y19" s="459"/>
+      <c r="Z19" s="459"/>
+      <c r="AA19" s="459"/>
+      <c r="AB19" s="459"/>
+      <c r="AC19" s="459"/>
+      <c r="AD19" s="459"/>
+      <c r="AE19" s="459"/>
+      <c r="AF19" s="460"/>
     </row>
     <row r="20" spans="1:36" ht="25" customHeight="1">
-      <c r="A20" s="309" t="s">
+      <c r="A20" s="340" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="310"/>
-      <c r="C20" s="317"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="318"/>
-      <c r="F20" s="318"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="318"/>
-      <c r="J20" s="318"/>
-      <c r="K20" s="318"/>
-      <c r="L20" s="318"/>
-      <c r="M20" s="318"/>
-      <c r="N20" s="319" t="s">
+      <c r="B20" s="341"/>
+      <c r="C20" s="349"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="350"/>
+      <c r="F20" s="350"/>
+      <c r="G20" s="350"/>
+      <c r="H20" s="350"/>
+      <c r="I20" s="350"/>
+      <c r="J20" s="350"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="350"/>
+      <c r="M20" s="350"/>
+      <c r="N20" s="351" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="319"/>
+      <c r="O20" s="351"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="320" t="s">
+      <c r="Q20" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="320"/>
-      <c r="S20" s="321"/>
-      <c r="T20" s="297" t="s">
+      <c r="R20" s="352"/>
+      <c r="S20" s="353"/>
+      <c r="T20" s="330" t="s">
         <v>22</v>
       </c>
-      <c r="U20" s="271"/>
-      <c r="V20" s="498"/>
-      <c r="W20" s="499"/>
-      <c r="X20" s="499"/>
-      <c r="Y20" s="499"/>
-      <c r="Z20" s="505"/>
-      <c r="AA20" s="506" t="s">
+      <c r="U20" s="331"/>
+      <c r="V20" s="485"/>
+      <c r="W20" s="486"/>
+      <c r="X20" s="486"/>
+      <c r="Y20" s="486"/>
+      <c r="Z20" s="487"/>
+      <c r="AA20" s="488" t="s">
         <v>102</v>
       </c>
-      <c r="AB20" s="506"/>
-      <c r="AC20" s="271"/>
-      <c r="AD20" s="222"/>
-      <c r="AE20" s="223"/>
-      <c r="AF20" s="224"/>
+      <c r="AB20" s="488"/>
+      <c r="AC20" s="331"/>
+      <c r="AD20" s="381"/>
+      <c r="AE20" s="382"/>
+      <c r="AF20" s="383"/>
     </row>
     <row r="21" spans="1:36" ht="25" customHeight="1">
-      <c r="A21" s="311"/>
-      <c r="B21" s="312"/>
-      <c r="C21" s="315"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="287"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="287"/>
-      <c r="M21" s="316" t="s">
+      <c r="A21" s="342"/>
+      <c r="B21" s="343"/>
+      <c r="C21" s="344"/>
+      <c r="D21" s="345"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
+      <c r="K21" s="345"/>
+      <c r="L21" s="345"/>
+      <c r="M21" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="316"/>
+      <c r="N21" s="279"/>
       <c r="O21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="199" t="s">
+      <c r="Q21" s="413" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="199"/>
-      <c r="S21" s="200"/>
-      <c r="T21" s="297" t="s">
+      <c r="R21" s="413"/>
+      <c r="S21" s="414"/>
+      <c r="T21" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="271"/>
-      <c r="V21" s="507"/>
-      <c r="W21" s="508"/>
-      <c r="X21" s="508"/>
-      <c r="Y21" s="508"/>
-      <c r="Z21" s="508"/>
-      <c r="AA21" s="508"/>
-      <c r="AB21" s="508"/>
-      <c r="AC21" s="508"/>
-      <c r="AD21" s="508"/>
-      <c r="AE21" s="508"/>
-      <c r="AF21" s="509"/>
+      <c r="U21" s="331"/>
+      <c r="V21" s="458"/>
+      <c r="W21" s="459"/>
+      <c r="X21" s="459"/>
+      <c r="Y21" s="459"/>
+      <c r="Z21" s="459"/>
+      <c r="AA21" s="459"/>
+      <c r="AB21" s="459"/>
+      <c r="AC21" s="459"/>
+      <c r="AD21" s="459"/>
+      <c r="AE21" s="459"/>
+      <c r="AF21" s="460"/>
     </row>
     <row r="22" spans="1:36" ht="25" customHeight="1">
-      <c r="A22" s="309" t="s">
+      <c r="A22" s="340" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="310"/>
-      <c r="C22" s="510"/>
-      <c r="D22" s="511"/>
-      <c r="E22" s="511"/>
-      <c r="F22" s="511"/>
-      <c r="G22" s="320"/>
-      <c r="H22" s="320"/>
-      <c r="I22" s="442"/>
-      <c r="J22" s="442"/>
-      <c r="K22" s="442"/>
-      <c r="L22" s="442"/>
-      <c r="M22" s="442"/>
-      <c r="N22" s="442"/>
-      <c r="O22" s="442"/>
-      <c r="P22" s="442"/>
-      <c r="Q22" s="442"/>
-      <c r="R22" s="319" t="s">
+      <c r="B22" s="341"/>
+      <c r="C22" s="496"/>
+      <c r="D22" s="497"/>
+      <c r="E22" s="497"/>
+      <c r="F22" s="497"/>
+      <c r="G22" s="352"/>
+      <c r="H22" s="352"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="248"/>
+      <c r="K22" s="248"/>
+      <c r="L22" s="248"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="248"/>
+      <c r="O22" s="248"/>
+      <c r="P22" s="248"/>
+      <c r="Q22" s="248"/>
+      <c r="R22" s="351" t="s">
         <v>69</v>
       </c>
-      <c r="S22" s="319"/>
-      <c r="T22" s="297" t="s">
+      <c r="S22" s="351"/>
+      <c r="T22" s="330" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="271"/>
-      <c r="V22" s="498"/>
-      <c r="W22" s="499"/>
-      <c r="X22" s="499"/>
-      <c r="Y22" s="499"/>
-      <c r="Z22" s="505"/>
-      <c r="AA22" s="506" t="s">
+      <c r="U22" s="331"/>
+      <c r="V22" s="485"/>
+      <c r="W22" s="486"/>
+      <c r="X22" s="486"/>
+      <c r="Y22" s="486"/>
+      <c r="Z22" s="487"/>
+      <c r="AA22" s="488" t="s">
         <v>102</v>
       </c>
-      <c r="AB22" s="506"/>
-      <c r="AC22" s="271"/>
-      <c r="AD22" s="222"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="224"/>
+      <c r="AB22" s="488"/>
+      <c r="AC22" s="331"/>
+      <c r="AD22" s="381"/>
+      <c r="AE22" s="382"/>
+      <c r="AF22" s="383"/>
     </row>
     <row r="23" spans="1:36" ht="25" customHeight="1">
-      <c r="A23" s="311"/>
-      <c r="B23" s="312"/>
-      <c r="C23" s="501"/>
-      <c r="D23" s="502"/>
-      <c r="E23" s="502"/>
-      <c r="F23" s="502"/>
-      <c r="G23" s="502"/>
-      <c r="H23" s="502"/>
-      <c r="I23" s="502"/>
-      <c r="J23" s="502"/>
-      <c r="K23" s="502"/>
-      <c r="L23" s="502"/>
-      <c r="M23" s="502"/>
+      <c r="A23" s="342"/>
+      <c r="B23" s="343"/>
+      <c r="C23" s="456"/>
+      <c r="D23" s="457"/>
+      <c r="E23" s="457"/>
+      <c r="F23" s="457"/>
+      <c r="G23" s="457"/>
+      <c r="H23" s="457"/>
+      <c r="I23" s="457"/>
+      <c r="J23" s="457"/>
+      <c r="K23" s="457"/>
+      <c r="L23" s="457"/>
+      <c r="M23" s="457"/>
       <c r="N23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="O23" s="10"/>
-      <c r="P23" s="316" t="s">
+      <c r="P23" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="316"/>
-      <c r="R23" s="316"/>
-      <c r="S23" s="316"/>
-      <c r="T23" s="297" t="s">
+      <c r="Q23" s="279"/>
+      <c r="R23" s="279"/>
+      <c r="S23" s="279"/>
+      <c r="T23" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="U23" s="271"/>
-      <c r="V23" s="507"/>
-      <c r="W23" s="508"/>
-      <c r="X23" s="508"/>
-      <c r="Y23" s="508"/>
-      <c r="Z23" s="508"/>
-      <c r="AA23" s="508"/>
-      <c r="AB23" s="508"/>
-      <c r="AC23" s="508"/>
-      <c r="AD23" s="508"/>
-      <c r="AE23" s="508"/>
-      <c r="AF23" s="509"/>
+      <c r="U23" s="331"/>
+      <c r="V23" s="458"/>
+      <c r="W23" s="459"/>
+      <c r="X23" s="459"/>
+      <c r="Y23" s="459"/>
+      <c r="Z23" s="459"/>
+      <c r="AA23" s="459"/>
+      <c r="AB23" s="459"/>
+      <c r="AC23" s="459"/>
+      <c r="AD23" s="459"/>
+      <c r="AE23" s="459"/>
+      <c r="AF23" s="460"/>
     </row>
     <row r="24" spans="1:36" ht="25" customHeight="1">
-      <c r="A24" s="342" t="s">
+      <c r="A24" s="332" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="343"/>
+      <c r="B24" s="333"/>
       <c r="C24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="345"/>
-      <c r="E24" s="345"/>
-      <c r="F24" s="345"/>
-      <c r="G24" s="345"/>
-      <c r="H24" s="345"/>
-      <c r="I24" s="345"/>
-      <c r="J24" s="345"/>
-      <c r="K24" s="345"/>
-      <c r="L24" s="345"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="345"/>
-      <c r="O24" s="345"/>
-      <c r="P24" s="345"/>
-      <c r="Q24" s="345"/>
-      <c r="R24" s="345"/>
-      <c r="S24" s="497"/>
-      <c r="T24" s="277" t="s">
+      <c r="D24" s="335"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="335"/>
+      <c r="G24" s="335"/>
+      <c r="H24" s="335"/>
+      <c r="I24" s="335"/>
+      <c r="J24" s="335"/>
+      <c r="K24" s="335"/>
+      <c r="L24" s="335"/>
+      <c r="M24" s="335"/>
+      <c r="N24" s="335"/>
+      <c r="O24" s="335"/>
+      <c r="P24" s="335"/>
+      <c r="Q24" s="335"/>
+      <c r="R24" s="335"/>
+      <c r="S24" s="492"/>
+      <c r="T24" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="U24" s="279"/>
-      <c r="V24" s="498"/>
-      <c r="W24" s="499"/>
-      <c r="X24" s="499"/>
-      <c r="Y24" s="499"/>
-      <c r="Z24" s="499"/>
-      <c r="AA24" s="499"/>
-      <c r="AB24" s="499"/>
-      <c r="AC24" s="499"/>
-      <c r="AD24" s="499"/>
-      <c r="AE24" s="499"/>
-      <c r="AF24" s="500"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="485"/>
+      <c r="W24" s="486"/>
+      <c r="X24" s="486"/>
+      <c r="Y24" s="486"/>
+      <c r="Z24" s="486"/>
+      <c r="AA24" s="486"/>
+      <c r="AB24" s="486"/>
+      <c r="AC24" s="486"/>
+      <c r="AD24" s="486"/>
+      <c r="AE24" s="486"/>
+      <c r="AF24" s="493"/>
       <c r="AJ24"/>
     </row>
     <row r="25" spans="1:36" ht="25" customHeight="1">
-      <c r="A25" s="296"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="501"/>
-      <c r="D25" s="502"/>
-      <c r="E25" s="503"/>
-      <c r="F25" s="503"/>
-      <c r="G25" s="503"/>
-      <c r="H25" s="503"/>
-      <c r="I25" s="503"/>
-      <c r="J25" s="503"/>
-      <c r="K25" s="503"/>
-      <c r="L25" s="503"/>
-      <c r="M25" s="503"/>
-      <c r="N25" s="503"/>
-      <c r="O25" s="503"/>
-      <c r="P25" s="503"/>
-      <c r="Q25" s="503"/>
-      <c r="R25" s="503"/>
-      <c r="S25" s="504"/>
-      <c r="T25" s="228" t="s">
+      <c r="A25" s="192"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="456"/>
+      <c r="D25" s="457"/>
+      <c r="E25" s="494"/>
+      <c r="F25" s="494"/>
+      <c r="G25" s="494"/>
+      <c r="H25" s="494"/>
+      <c r="I25" s="494"/>
+      <c r="J25" s="494"/>
+      <c r="K25" s="494"/>
+      <c r="L25" s="494"/>
+      <c r="M25" s="494"/>
+      <c r="N25" s="494"/>
+      <c r="O25" s="494"/>
+      <c r="P25" s="494"/>
+      <c r="Q25" s="494"/>
+      <c r="R25" s="494"/>
+      <c r="S25" s="495"/>
+      <c r="T25" s="433" t="s">
         <v>117</v>
       </c>
-      <c r="U25" s="229"/>
-      <c r="V25" s="498"/>
-      <c r="W25" s="499"/>
-      <c r="X25" s="499"/>
-      <c r="Y25" s="499"/>
+      <c r="U25" s="334"/>
+      <c r="V25" s="485"/>
+      <c r="W25" s="486"/>
+      <c r="X25" s="486"/>
+      <c r="Y25" s="486"/>
       <c r="Z25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" s="499"/>
-      <c r="AB25" s="499"/>
-      <c r="AC25" s="499"/>
-      <c r="AD25" s="499"/>
-      <c r="AE25" s="499"/>
+      <c r="AA25" s="486"/>
+      <c r="AB25" s="486"/>
+      <c r="AC25" s="486"/>
+      <c r="AD25" s="486"/>
+      <c r="AE25" s="486"/>
       <c r="AF25" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AJ25"/>
     </row>
     <row r="26" spans="1:36" ht="31.5" customHeight="1">
-      <c r="A26" s="492" t="s">
+      <c r="A26" s="498" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="493"/>
-      <c r="C26" s="493"/>
-      <c r="D26" s="493"/>
-      <c r="E26" s="494"/>
-      <c r="F26" s="495"/>
-      <c r="G26" s="495"/>
-      <c r="H26" s="495"/>
+      <c r="B26" s="499"/>
+      <c r="C26" s="499"/>
+      <c r="D26" s="499"/>
+      <c r="E26" s="500"/>
+      <c r="F26" s="501"/>
+      <c r="G26" s="501"/>
+      <c r="H26" s="501"/>
       <c r="I26" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="496"/>
-      <c r="K26" s="496"/>
-      <c r="L26" s="496"/>
-      <c r="M26" s="496"/>
-      <c r="N26" s="254" t="s">
+      <c r="J26" s="502"/>
+      <c r="K26" s="502"/>
+      <c r="L26" s="502"/>
+      <c r="M26" s="502"/>
+      <c r="N26" s="394" t="s">
         <v>96</v>
       </c>
-      <c r="O26" s="254"/>
-      <c r="P26" s="496"/>
-      <c r="Q26" s="496"/>
-      <c r="R26" s="254" t="s">
+      <c r="O26" s="394"/>
+      <c r="P26" s="502"/>
+      <c r="Q26" s="502"/>
+      <c r="R26" s="394" t="s">
         <v>98</v>
       </c>
-      <c r="S26" s="255"/>
-      <c r="T26" s="271" t="s">
+      <c r="S26" s="395"/>
+      <c r="T26" s="331" t="s">
         <v>118</v>
       </c>
-      <c r="U26" s="272"/>
-      <c r="V26" s="214" t="s">
+      <c r="U26" s="404"/>
+      <c r="V26" s="427" t="s">
         <v>121</v>
       </c>
-      <c r="W26" s="215"/>
-      <c r="X26" s="215"/>
-      <c r="Y26" s="215"/>
-      <c r="Z26" s="215"/>
-      <c r="AA26" s="215"/>
-      <c r="AB26" s="215"/>
-      <c r="AC26" s="215"/>
-      <c r="AD26" s="215"/>
-      <c r="AE26" s="215"/>
-      <c r="AF26" s="216"/>
+      <c r="W26" s="428"/>
+      <c r="X26" s="428"/>
+      <c r="Y26" s="428"/>
+      <c r="Z26" s="428"/>
+      <c r="AA26" s="428"/>
+      <c r="AB26" s="428"/>
+      <c r="AC26" s="428"/>
+      <c r="AD26" s="428"/>
+      <c r="AE26" s="428"/>
+      <c r="AF26" s="429"/>
       <c r="AJ26"/>
     </row>
     <row r="27" spans="1:36" ht="18" customHeight="1">
-      <c r="A27" s="427" t="s">
+      <c r="A27" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="428"/>
-      <c r="C27" s="428"/>
-      <c r="D27" s="429"/>
-      <c r="E27" s="436" t="s">
+      <c r="B27" s="225"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="437"/>
-      <c r="G27" s="383" t="s">
+      <c r="F27" s="234"/>
+      <c r="G27" s="309" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="325" t="s">
+      <c r="H27" s="357" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
-      <c r="N27" s="325"/>
-      <c r="O27" s="325"/>
-      <c r="P27" s="325"/>
-      <c r="Q27" s="325"/>
-      <c r="R27" s="358" t="s">
+      <c r="I27" s="357"/>
+      <c r="J27" s="357"/>
+      <c r="K27" s="357"/>
+      <c r="L27" s="357"/>
+      <c r="M27" s="357"/>
+      <c r="N27" s="357"/>
+      <c r="O27" s="357"/>
+      <c r="P27" s="357"/>
+      <c r="Q27" s="357"/>
+      <c r="R27" s="286" t="s">
         <v>143</v>
       </c>
-      <c r="S27" s="358"/>
+      <c r="S27" s="286"/>
       <c r="T27" s="136" t="s">
         <v>109</v>
       </c>
       <c r="U27" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="V27" s="361"/>
-      <c r="W27" s="361"/>
-      <c r="X27" s="362"/>
-      <c r="Y27" s="416" t="s">
+      <c r="V27" s="289"/>
+      <c r="W27" s="289"/>
+      <c r="X27" s="290"/>
+      <c r="Y27" s="194" t="s">
         <v>191</v>
       </c>
-      <c r="Z27" s="417"/>
-      <c r="AA27" s="422" t="s">
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="AB27" s="358" t="s">
+      <c r="AB27" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="AC27" s="358"/>
-      <c r="AD27" s="358"/>
-      <c r="AE27" s="358"/>
-      <c r="AF27" s="483"/>
+      <c r="AC27" s="286"/>
+      <c r="AD27" s="286"/>
+      <c r="AE27" s="286"/>
+      <c r="AF27" s="503"/>
     </row>
     <row r="28" spans="1:36" ht="23.25" customHeight="1">
-      <c r="A28" s="430"/>
-      <c r="B28" s="431"/>
-      <c r="C28" s="431"/>
-      <c r="D28" s="432"/>
-      <c r="E28" s="438"/>
-      <c r="F28" s="439"/>
-      <c r="G28" s="384"/>
-      <c r="H28" s="322" t="s">
+      <c r="A28" s="227"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="310"/>
+      <c r="H28" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="I28" s="322"/>
-      <c r="J28" s="322"/>
-      <c r="K28" s="322"/>
-      <c r="L28" s="322"/>
-      <c r="M28" s="322"/>
-      <c r="N28" s="322"/>
-      <c r="O28" s="322"/>
-      <c r="P28" s="322"/>
-      <c r="Q28" s="322"/>
-      <c r="R28" s="359"/>
-      <c r="S28" s="359"/>
+      <c r="I28" s="354"/>
+      <c r="J28" s="354"/>
+      <c r="K28" s="354"/>
+      <c r="L28" s="354"/>
+      <c r="M28" s="354"/>
+      <c r="N28" s="354"/>
+      <c r="O28" s="354"/>
+      <c r="P28" s="354"/>
+      <c r="Q28" s="354"/>
+      <c r="R28" s="287"/>
+      <c r="S28" s="287"/>
       <c r="T28" s="138" t="s">
         <v>109</v>
       </c>
       <c r="U28" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="V28" s="485"/>
-      <c r="W28" s="485"/>
-      <c r="X28" s="486"/>
-      <c r="Y28" s="418"/>
-      <c r="Z28" s="419"/>
-      <c r="AA28" s="239"/>
-      <c r="AB28" s="360"/>
-      <c r="AC28" s="360"/>
-      <c r="AD28" s="360"/>
-      <c r="AE28" s="360"/>
-      <c r="AF28" s="484"/>
+      <c r="V28" s="505"/>
+      <c r="W28" s="505"/>
+      <c r="X28" s="506"/>
+      <c r="Y28" s="196"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="201"/>
+      <c r="AB28" s="288"/>
+      <c r="AC28" s="288"/>
+      <c r="AD28" s="288"/>
+      <c r="AE28" s="288"/>
+      <c r="AF28" s="504"/>
     </row>
     <row r="29" spans="1:36" ht="18" customHeight="1">
-      <c r="A29" s="430"/>
-      <c r="B29" s="431"/>
-      <c r="C29" s="431"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="438"/>
-      <c r="F29" s="439"/>
-      <c r="G29" s="385"/>
-      <c r="H29" s="363" t="s">
+      <c r="A29" s="227"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="311"/>
+      <c r="H29" s="291" t="s">
         <v>147</v>
       </c>
-      <c r="I29" s="363"/>
-      <c r="J29" s="363"/>
-      <c r="K29" s="363"/>
-      <c r="L29" s="363"/>
-      <c r="M29" s="363"/>
-      <c r="N29" s="363"/>
-      <c r="O29" s="363"/>
-      <c r="P29" s="363"/>
-      <c r="Q29" s="363"/>
-      <c r="R29" s="360"/>
-      <c r="S29" s="360"/>
+      <c r="I29" s="291"/>
+      <c r="J29" s="291"/>
+      <c r="K29" s="291"/>
+      <c r="L29" s="291"/>
+      <c r="M29" s="291"/>
+      <c r="N29" s="291"/>
+      <c r="O29" s="291"/>
+      <c r="P29" s="291"/>
+      <c r="Q29" s="291"/>
+      <c r="R29" s="288"/>
+      <c r="S29" s="288"/>
       <c r="T29" s="140" t="s">
         <v>80</v>
       </c>
       <c r="U29" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="V29" s="485"/>
-      <c r="W29" s="485"/>
-      <c r="X29" s="486"/>
-      <c r="Y29" s="418"/>
-      <c r="Z29" s="419"/>
-      <c r="AA29" s="238" t="s">
+      <c r="V29" s="505"/>
+      <c r="W29" s="505"/>
+      <c r="X29" s="506"/>
+      <c r="Y29" s="196"/>
+      <c r="Z29" s="197"/>
+      <c r="AA29" s="441" t="s">
         <v>109</v>
       </c>
-      <c r="AB29" s="487" t="s">
+      <c r="AB29" s="507" t="s">
         <v>148</v>
       </c>
-      <c r="AC29" s="488"/>
-      <c r="AD29" s="488"/>
-      <c r="AE29" s="488"/>
-      <c r="AF29" s="489"/>
+      <c r="AC29" s="508"/>
+      <c r="AD29" s="508"/>
+      <c r="AE29" s="508"/>
+      <c r="AF29" s="509"/>
     </row>
     <row r="30" spans="1:36" ht="28" customHeight="1">
-      <c r="A30" s="433"/>
-      <c r="B30" s="434"/>
-      <c r="C30" s="434"/>
-      <c r="D30" s="435"/>
-      <c r="E30" s="440"/>
-      <c r="F30" s="441"/>
+      <c r="A30" s="230"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="238"/>
       <c r="G30" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="323" t="s">
+      <c r="H30" s="355" t="s">
         <v>149</v>
       </c>
-      <c r="I30" s="323"/>
-      <c r="J30" s="323"/>
-      <c r="K30" s="323"/>
-      <c r="L30" s="323"/>
-      <c r="M30" s="323"/>
-      <c r="N30" s="323"/>
-      <c r="O30" s="323"/>
-      <c r="P30" s="323"/>
-      <c r="Q30" s="323"/>
-      <c r="R30" s="323"/>
-      <c r="S30" s="323"/>
-      <c r="T30" s="323"/>
-      <c r="U30" s="323"/>
-      <c r="V30" s="323"/>
-      <c r="W30" s="323"/>
-      <c r="X30" s="324"/>
-      <c r="Y30" s="420"/>
-      <c r="Z30" s="421"/>
-      <c r="AA30" s="239"/>
-      <c r="AB30" s="490"/>
-      <c r="AC30" s="490"/>
-      <c r="AD30" s="490"/>
-      <c r="AE30" s="490"/>
-      <c r="AF30" s="491"/>
+      <c r="I30" s="355"/>
+      <c r="J30" s="355"/>
+      <c r="K30" s="355"/>
+      <c r="L30" s="355"/>
+      <c r="M30" s="355"/>
+      <c r="N30" s="355"/>
+      <c r="O30" s="355"/>
+      <c r="P30" s="355"/>
+      <c r="Q30" s="355"/>
+      <c r="R30" s="355"/>
+      <c r="S30" s="355"/>
+      <c r="T30" s="355"/>
+      <c r="U30" s="355"/>
+      <c r="V30" s="355"/>
+      <c r="W30" s="355"/>
+      <c r="X30" s="356"/>
+      <c r="Y30" s="198"/>
+      <c r="Z30" s="199"/>
+      <c r="AA30" s="201"/>
+      <c r="AB30" s="510"/>
+      <c r="AC30" s="510"/>
+      <c r="AD30" s="510"/>
+      <c r="AE30" s="510"/>
+      <c r="AF30" s="511"/>
     </row>
     <row r="31" spans="1:36" ht="21.75" customHeight="1">
-      <c r="A31" s="372" t="s">
+      <c r="A31" s="300" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="373"/>
-      <c r="C31" s="373"/>
-      <c r="D31" s="374"/>
+      <c r="B31" s="301"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="302"/>
       <c r="E31" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="481">
+      <c r="F31" s="515">
         <v>45026</v>
       </c>
-      <c r="G31" s="237"/>
-      <c r="H31" s="237"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="237"/>
-      <c r="L31" s="378" t="s">
+      <c r="G31" s="329"/>
+      <c r="H31" s="329"/>
+      <c r="I31" s="329"/>
+      <c r="J31" s="329"/>
+      <c r="K31" s="329"/>
+      <c r="L31" s="306" t="s">
         <v>65</v>
       </c>
       <c r="M31" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="N31" s="237">
+      <c r="N31" s="329">
         <v>45351</v>
       </c>
-      <c r="O31" s="237"/>
-      <c r="P31" s="237"/>
-      <c r="Q31" s="237"/>
-      <c r="R31" s="237"/>
-      <c r="S31" s="237"/>
-      <c r="T31" s="237"/>
+      <c r="O31" s="329"/>
+      <c r="P31" s="329"/>
+      <c r="Q31" s="329"/>
+      <c r="R31" s="329"/>
+      <c r="S31" s="329"/>
+      <c r="T31" s="329"/>
       <c r="U31" s="145"/>
-      <c r="V31" s="202" t="s">
+      <c r="V31" s="415" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="204" t="s">
+      <c r="W31" s="417" t="s">
         <v>167</v>
       </c>
-      <c r="X31" s="204"/>
-      <c r="Y31" s="204"/>
-      <c r="Z31" s="204"/>
-      <c r="AA31" s="204"/>
-      <c r="AB31" s="204"/>
-      <c r="AC31" s="204"/>
-      <c r="AD31" s="204"/>
-      <c r="AE31" s="204"/>
-      <c r="AF31" s="205"/>
+      <c r="X31" s="417"/>
+      <c r="Y31" s="417"/>
+      <c r="Z31" s="417"/>
+      <c r="AA31" s="417"/>
+      <c r="AB31" s="417"/>
+      <c r="AC31" s="417"/>
+      <c r="AD31" s="417"/>
+      <c r="AE31" s="417"/>
+      <c r="AF31" s="418"/>
     </row>
     <row r="32" spans="1:36" ht="21.75" customHeight="1">
-      <c r="A32" s="375"/>
-      <c r="B32" s="376"/>
-      <c r="C32" s="376"/>
-      <c r="D32" s="377"/>
+      <c r="A32" s="303"/>
+      <c r="B32" s="304"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="305"/>
       <c r="E32" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="308">
+      <c r="F32" s="328">
         <v>45054</v>
       </c>
-      <c r="G32" s="308"/>
-      <c r="H32" s="308"/>
-      <c r="I32" s="308"/>
-      <c r="J32" s="308"/>
-      <c r="K32" s="308"/>
-      <c r="L32" s="379"/>
+      <c r="G32" s="328"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="328"/>
+      <c r="J32" s="328"/>
+      <c r="K32" s="328"/>
+      <c r="L32" s="307"/>
       <c r="M32" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="N32" s="387"/>
-      <c r="O32" s="387"/>
+      <c r="N32" s="313"/>
+      <c r="O32" s="313"/>
       <c r="P32" s="135" t="s">
         <v>139</v>
       </c>
@@ -13280,40 +13283,40 @@
         <v>141</v>
       </c>
       <c r="U32" s="134"/>
-      <c r="V32" s="203"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="206"/>
-      <c r="Y32" s="206"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="206"/>
-      <c r="AE32" s="206"/>
-      <c r="AF32" s="207"/>
+      <c r="V32" s="416"/>
+      <c r="W32" s="419"/>
+      <c r="X32" s="419"/>
+      <c r="Y32" s="419"/>
+      <c r="Z32" s="419"/>
+      <c r="AA32" s="419"/>
+      <c r="AB32" s="419"/>
+      <c r="AC32" s="419"/>
+      <c r="AD32" s="419"/>
+      <c r="AE32" s="419"/>
+      <c r="AF32" s="420"/>
     </row>
     <row r="33" spans="1:32" ht="21.75" customHeight="1">
-      <c r="A33" s="478"/>
-      <c r="B33" s="479"/>
-      <c r="C33" s="479"/>
-      <c r="D33" s="480"/>
+      <c r="A33" s="512"/>
+      <c r="B33" s="513"/>
+      <c r="C33" s="513"/>
+      <c r="D33" s="514"/>
       <c r="E33" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="308">
+      <c r="F33" s="558">
         <v>45200</v>
       </c>
-      <c r="G33" s="308"/>
-      <c r="H33" s="308"/>
-      <c r="I33" s="308"/>
-      <c r="J33" s="308"/>
-      <c r="K33" s="308"/>
-      <c r="L33" s="380"/>
+      <c r="G33" s="558"/>
+      <c r="H33" s="558"/>
+      <c r="I33" s="558"/>
+      <c r="J33" s="558"/>
+      <c r="K33" s="558"/>
+      <c r="L33" s="308"/>
       <c r="M33" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="N33" s="353"/>
-      <c r="O33" s="353"/>
+      <c r="N33" s="339"/>
+      <c r="O33" s="339"/>
       <c r="P33" s="148" t="s">
         <v>139</v>
       </c>
@@ -13329,34 +13332,34 @@
       <c r="V33" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="W33" s="386" t="s">
+      <c r="W33" s="312" t="s">
         <v>192</v>
       </c>
-      <c r="X33" s="386"/>
-      <c r="Y33" s="386"/>
-      <c r="Z33" s="386"/>
-      <c r="AA33" s="386"/>
-      <c r="AB33" s="386"/>
-      <c r="AC33" s="386"/>
-      <c r="AD33" s="386"/>
-      <c r="AE33" s="386"/>
-      <c r="AF33" s="482"/>
+      <c r="X33" s="312"/>
+      <c r="Y33" s="312"/>
+      <c r="Z33" s="312"/>
+      <c r="AA33" s="312"/>
+      <c r="AB33" s="312"/>
+      <c r="AC33" s="312"/>
+      <c r="AD33" s="312"/>
+      <c r="AE33" s="312"/>
+      <c r="AF33" s="516"/>
     </row>
     <row r="34" spans="1:32" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A34" s="280" t="s">
+      <c r="A34" s="358" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="281"/>
-      <c r="C34" s="281"/>
-      <c r="D34" s="282"/>
+      <c r="B34" s="359"/>
+      <c r="C34" s="359"/>
+      <c r="D34" s="360"/>
       <c r="E34" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="470" t="s">
+      <c r="F34" s="522" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="470"/>
-      <c r="H34" s="470"/>
+      <c r="G34" s="522"/>
+      <c r="H34" s="522"/>
       <c r="I34" s="182" t="s">
         <v>132</v>
       </c>
@@ -13364,25 +13367,25 @@
         <v>109</v>
       </c>
       <c r="K34" s="181"/>
-      <c r="L34" s="470" t="s">
+      <c r="L34" s="522" t="s">
         <v>133</v>
       </c>
-      <c r="M34" s="470"/>
-      <c r="N34" s="470"/>
-      <c r="O34" s="470"/>
-      <c r="P34" s="470"/>
+      <c r="M34" s="522"/>
+      <c r="N34" s="522"/>
+      <c r="O34" s="522"/>
+      <c r="P34" s="522"/>
       <c r="Q34" s="182" t="s">
         <v>132</v>
       </c>
       <c r="R34" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="S34" s="471" t="s">
+      <c r="S34" s="523" t="s">
         <v>135</v>
       </c>
-      <c r="T34" s="471"/>
-      <c r="U34" s="471"/>
-      <c r="V34" s="471"/>
+      <c r="T34" s="523"/>
+      <c r="U34" s="523"/>
+      <c r="V34" s="523"/>
       <c r="W34" s="182" t="s">
         <v>132</v>
       </c>
@@ -13392,687 +13395,687 @@
       <c r="Y34" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="Z34" s="470"/>
-      <c r="AA34" s="470"/>
-      <c r="AB34" s="470"/>
-      <c r="AC34" s="470"/>
-      <c r="AD34" s="470"/>
-      <c r="AE34" s="470"/>
+      <c r="Z34" s="522"/>
+      <c r="AA34" s="522"/>
+      <c r="AB34" s="522"/>
+      <c r="AC34" s="522"/>
+      <c r="AD34" s="522"/>
+      <c r="AE34" s="522"/>
       <c r="AF34" s="184" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A35" s="472" t="s">
+      <c r="A35" s="524" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="474" t="s">
+      <c r="B35" s="526" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="475"/>
-      <c r="D35" s="256" t="s">
+      <c r="C35" s="527"/>
+      <c r="D35" s="319" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="257"/>
-      <c r="F35" s="257"/>
-      <c r="G35" s="257"/>
-      <c r="H35" s="257"/>
-      <c r="I35" s="332" t="s">
+      <c r="E35" s="320"/>
+      <c r="F35" s="320"/>
+      <c r="G35" s="320"/>
+      <c r="H35" s="320"/>
+      <c r="I35" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="452" t="s">
+      <c r="J35" s="528" t="s">
         <v>175</v>
       </c>
-      <c r="K35" s="476"/>
-      <c r="L35" s="476"/>
-      <c r="M35" s="476"/>
-      <c r="N35" s="476"/>
-      <c r="O35" s="476"/>
-      <c r="P35" s="476"/>
-      <c r="Q35" s="476"/>
-      <c r="R35" s="476"/>
-      <c r="S35" s="476"/>
-      <c r="T35" s="477"/>
-      <c r="U35" s="256" t="s">
+      <c r="K35" s="529"/>
+      <c r="L35" s="529"/>
+      <c r="M35" s="529"/>
+      <c r="N35" s="529"/>
+      <c r="O35" s="529"/>
+      <c r="P35" s="529"/>
+      <c r="Q35" s="529"/>
+      <c r="R35" s="529"/>
+      <c r="S35" s="529"/>
+      <c r="T35" s="530"/>
+      <c r="U35" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="V35" s="257"/>
-      <c r="W35" s="257"/>
-      <c r="X35" s="276"/>
+      <c r="V35" s="320"/>
+      <c r="W35" s="320"/>
+      <c r="X35" s="318"/>
       <c r="Y35" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="Z35" s="452" t="s">
+      <c r="Z35" s="528" t="s">
         <v>156</v>
       </c>
-      <c r="AA35" s="453"/>
-      <c r="AB35" s="453"/>
-      <c r="AC35" s="453"/>
-      <c r="AD35" s="453"/>
-      <c r="AE35" s="453"/>
-      <c r="AF35" s="454"/>
+      <c r="AA35" s="556"/>
+      <c r="AB35" s="556"/>
+      <c r="AC35" s="556"/>
+      <c r="AD35" s="556"/>
+      <c r="AE35" s="556"/>
+      <c r="AF35" s="557"/>
     </row>
     <row r="36" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A36" s="472"/>
-      <c r="B36" s="277" t="s">
+      <c r="A36" s="524"/>
+      <c r="B36" s="321" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="279"/>
-      <c r="D36" s="277"/>
-      <c r="E36" s="278"/>
-      <c r="F36" s="278"/>
-      <c r="G36" s="278"/>
-      <c r="H36" s="278"/>
-      <c r="I36" s="333"/>
-      <c r="J36" s="448" t="s">
+      <c r="C36" s="193"/>
+      <c r="D36" s="321"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="322"/>
+      <c r="G36" s="322"/>
+      <c r="H36" s="322"/>
+      <c r="I36" s="324"/>
+      <c r="J36" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="449"/>
-      <c r="L36" s="450" t="s">
+      <c r="K36" s="553"/>
+      <c r="L36" s="554" t="s">
         <v>177</v>
       </c>
-      <c r="M36" s="450"/>
-      <c r="N36" s="450"/>
-      <c r="O36" s="450"/>
-      <c r="P36" s="450"/>
-      <c r="Q36" s="450"/>
-      <c r="R36" s="450"/>
-      <c r="S36" s="450"/>
-      <c r="T36" s="451"/>
-      <c r="U36" s="277"/>
-      <c r="V36" s="278"/>
-      <c r="W36" s="278"/>
-      <c r="X36" s="279"/>
+      <c r="M36" s="554"/>
+      <c r="N36" s="554"/>
+      <c r="O36" s="554"/>
+      <c r="P36" s="554"/>
+      <c r="Q36" s="554"/>
+      <c r="R36" s="554"/>
+      <c r="S36" s="554"/>
+      <c r="T36" s="555"/>
+      <c r="U36" s="321"/>
+      <c r="V36" s="322"/>
+      <c r="W36" s="322"/>
+      <c r="X36" s="193"/>
       <c r="Y36" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Z36" s="467" t="s">
+      <c r="Z36" s="517" t="s">
         <v>178</v>
       </c>
-      <c r="AA36" s="468"/>
-      <c r="AB36" s="468"/>
-      <c r="AC36" s="468"/>
-      <c r="AD36" s="468"/>
-      <c r="AE36" s="468"/>
-      <c r="AF36" s="469"/>
+      <c r="AA36" s="518"/>
+      <c r="AB36" s="518"/>
+      <c r="AC36" s="518"/>
+      <c r="AD36" s="518"/>
+      <c r="AE36" s="518"/>
+      <c r="AF36" s="519"/>
     </row>
     <row r="37" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A37" s="472"/>
-      <c r="B37" s="552"/>
-      <c r="C37" s="552"/>
-      <c r="D37" s="553"/>
-      <c r="E37" s="553"/>
-      <c r="F37" s="553"/>
-      <c r="G37" s="553"/>
-      <c r="H37" s="553"/>
-      <c r="I37" s="554"/>
-      <c r="J37" s="555"/>
-      <c r="K37" s="555"/>
-      <c r="L37" s="556"/>
-      <c r="M37" s="556"/>
-      <c r="N37" s="556"/>
-      <c r="O37" s="556"/>
-      <c r="P37" s="554" t="s">
+      <c r="A37" s="524"/>
+      <c r="B37" s="520"/>
+      <c r="C37" s="520"/>
+      <c r="D37" s="521"/>
+      <c r="E37" s="521"/>
+      <c r="F37" s="521"/>
+      <c r="G37" s="521"/>
+      <c r="H37" s="521"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="533"/>
+      <c r="K37" s="533"/>
+      <c r="L37" s="531"/>
+      <c r="M37" s="531"/>
+      <c r="N37" s="531"/>
+      <c r="O37" s="531"/>
+      <c r="P37" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q37" s="556"/>
-      <c r="R37" s="556"/>
-      <c r="S37" s="556"/>
-      <c r="T37" s="556"/>
-      <c r="U37" s="556"/>
-      <c r="V37" s="556"/>
-      <c r="W37" s="556"/>
-      <c r="X37" s="556"/>
-      <c r="Y37" s="554"/>
-      <c r="Z37" s="557"/>
-      <c r="AA37" s="557"/>
-      <c r="AB37" s="557"/>
-      <c r="AC37" s="557"/>
-      <c r="AD37" s="557"/>
-      <c r="AE37" s="557"/>
-      <c r="AF37" s="557"/>
+      <c r="Q37" s="531"/>
+      <c r="R37" s="531"/>
+      <c r="S37" s="531"/>
+      <c r="T37" s="531"/>
+      <c r="U37" s="531"/>
+      <c r="V37" s="531"/>
+      <c r="W37" s="531"/>
+      <c r="X37" s="531"/>
+      <c r="Y37" s="186"/>
+      <c r="Z37" s="532"/>
+      <c r="AA37" s="532"/>
+      <c r="AB37" s="532"/>
+      <c r="AC37" s="532"/>
+      <c r="AD37" s="532"/>
+      <c r="AE37" s="532"/>
+      <c r="AF37" s="532"/>
     </row>
     <row r="38" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A38" s="472"/>
-      <c r="B38" s="552"/>
-      <c r="C38" s="552"/>
-      <c r="D38" s="553"/>
-      <c r="E38" s="553"/>
-      <c r="F38" s="553"/>
-      <c r="G38" s="553"/>
-      <c r="H38" s="553"/>
-      <c r="I38" s="554"/>
-      <c r="J38" s="555"/>
-      <c r="K38" s="555"/>
-      <c r="L38" s="556"/>
-      <c r="M38" s="556"/>
-      <c r="N38" s="556"/>
-      <c r="O38" s="556"/>
-      <c r="P38" s="554" t="s">
+      <c r="A38" s="524"/>
+      <c r="B38" s="520"/>
+      <c r="C38" s="520"/>
+      <c r="D38" s="521"/>
+      <c r="E38" s="521"/>
+      <c r="F38" s="521"/>
+      <c r="G38" s="521"/>
+      <c r="H38" s="521"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="533"/>
+      <c r="K38" s="533"/>
+      <c r="L38" s="531"/>
+      <c r="M38" s="531"/>
+      <c r="N38" s="531"/>
+      <c r="O38" s="531"/>
+      <c r="P38" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q38" s="556"/>
-      <c r="R38" s="556"/>
-      <c r="S38" s="556"/>
-      <c r="T38" s="556"/>
-      <c r="U38" s="556"/>
-      <c r="V38" s="556"/>
-      <c r="W38" s="556"/>
-      <c r="X38" s="556"/>
-      <c r="Y38" s="554"/>
-      <c r="Z38" s="557"/>
-      <c r="AA38" s="557"/>
-      <c r="AB38" s="557"/>
-      <c r="AC38" s="557"/>
-      <c r="AD38" s="557"/>
-      <c r="AE38" s="557"/>
-      <c r="AF38" s="557"/>
+      <c r="Q38" s="531"/>
+      <c r="R38" s="531"/>
+      <c r="S38" s="531"/>
+      <c r="T38" s="531"/>
+      <c r="U38" s="531"/>
+      <c r="V38" s="531"/>
+      <c r="W38" s="531"/>
+      <c r="X38" s="531"/>
+      <c r="Y38" s="186"/>
+      <c r="Z38" s="532"/>
+      <c r="AA38" s="532"/>
+      <c r="AB38" s="532"/>
+      <c r="AC38" s="532"/>
+      <c r="AD38" s="532"/>
+      <c r="AE38" s="532"/>
+      <c r="AF38" s="532"/>
     </row>
     <row r="39" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A39" s="472"/>
-      <c r="B39" s="552"/>
-      <c r="C39" s="552"/>
-      <c r="D39" s="553"/>
-      <c r="E39" s="553"/>
-      <c r="F39" s="553"/>
-      <c r="G39" s="553"/>
-      <c r="H39" s="553"/>
-      <c r="I39" s="554"/>
-      <c r="J39" s="555"/>
-      <c r="K39" s="555"/>
-      <c r="L39" s="556"/>
-      <c r="M39" s="556"/>
-      <c r="N39" s="556"/>
-      <c r="O39" s="556"/>
-      <c r="P39" s="554" t="s">
+      <c r="A39" s="524"/>
+      <c r="B39" s="520"/>
+      <c r="C39" s="520"/>
+      <c r="D39" s="521"/>
+      <c r="E39" s="521"/>
+      <c r="F39" s="521"/>
+      <c r="G39" s="521"/>
+      <c r="H39" s="521"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="533"/>
+      <c r="K39" s="533"/>
+      <c r="L39" s="531"/>
+      <c r="M39" s="531"/>
+      <c r="N39" s="531"/>
+      <c r="O39" s="531"/>
+      <c r="P39" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q39" s="556"/>
-      <c r="R39" s="556"/>
-      <c r="S39" s="556"/>
-      <c r="T39" s="556"/>
-      <c r="U39" s="556"/>
-      <c r="V39" s="556"/>
-      <c r="W39" s="556"/>
-      <c r="X39" s="556"/>
-      <c r="Y39" s="554"/>
-      <c r="Z39" s="557"/>
-      <c r="AA39" s="557"/>
-      <c r="AB39" s="557"/>
-      <c r="AC39" s="557"/>
-      <c r="AD39" s="557"/>
-      <c r="AE39" s="557"/>
-      <c r="AF39" s="557"/>
+      <c r="Q39" s="531"/>
+      <c r="R39" s="531"/>
+      <c r="S39" s="531"/>
+      <c r="T39" s="531"/>
+      <c r="U39" s="531"/>
+      <c r="V39" s="531"/>
+      <c r="W39" s="531"/>
+      <c r="X39" s="531"/>
+      <c r="Y39" s="186"/>
+      <c r="Z39" s="532"/>
+      <c r="AA39" s="532"/>
+      <c r="AB39" s="532"/>
+      <c r="AC39" s="532"/>
+      <c r="AD39" s="532"/>
+      <c r="AE39" s="532"/>
+      <c r="AF39" s="532"/>
     </row>
     <row r="40" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A40" s="472"/>
-      <c r="B40" s="552"/>
-      <c r="C40" s="552"/>
-      <c r="D40" s="553"/>
-      <c r="E40" s="553"/>
-      <c r="F40" s="553"/>
-      <c r="G40" s="553"/>
-      <c r="H40" s="553"/>
-      <c r="I40" s="554"/>
-      <c r="J40" s="555"/>
-      <c r="K40" s="555"/>
-      <c r="L40" s="556"/>
-      <c r="M40" s="556"/>
-      <c r="N40" s="556"/>
-      <c r="O40" s="556"/>
-      <c r="P40" s="554" t="s">
+      <c r="A40" s="524"/>
+      <c r="B40" s="520"/>
+      <c r="C40" s="520"/>
+      <c r="D40" s="521"/>
+      <c r="E40" s="521"/>
+      <c r="F40" s="521"/>
+      <c r="G40" s="521"/>
+      <c r="H40" s="521"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="533"/>
+      <c r="K40" s="533"/>
+      <c r="L40" s="531"/>
+      <c r="M40" s="531"/>
+      <c r="N40" s="531"/>
+      <c r="O40" s="531"/>
+      <c r="P40" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q40" s="556"/>
-      <c r="R40" s="556"/>
-      <c r="S40" s="556"/>
-      <c r="T40" s="556"/>
-      <c r="U40" s="556"/>
-      <c r="V40" s="556"/>
-      <c r="W40" s="556"/>
-      <c r="X40" s="556"/>
-      <c r="Y40" s="554"/>
-      <c r="Z40" s="557"/>
-      <c r="AA40" s="557"/>
-      <c r="AB40" s="557"/>
-      <c r="AC40" s="557"/>
-      <c r="AD40" s="557"/>
-      <c r="AE40" s="557"/>
-      <c r="AF40" s="557"/>
+      <c r="Q40" s="531"/>
+      <c r="R40" s="531"/>
+      <c r="S40" s="531"/>
+      <c r="T40" s="531"/>
+      <c r="U40" s="531"/>
+      <c r="V40" s="531"/>
+      <c r="W40" s="531"/>
+      <c r="X40" s="531"/>
+      <c r="Y40" s="186"/>
+      <c r="Z40" s="532"/>
+      <c r="AA40" s="532"/>
+      <c r="AB40" s="532"/>
+      <c r="AC40" s="532"/>
+      <c r="AD40" s="532"/>
+      <c r="AE40" s="532"/>
+      <c r="AF40" s="532"/>
     </row>
     <row r="41" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A41" s="472"/>
-      <c r="B41" s="552"/>
-      <c r="C41" s="552"/>
-      <c r="D41" s="553"/>
-      <c r="E41" s="553"/>
-      <c r="F41" s="553"/>
-      <c r="G41" s="553"/>
-      <c r="H41" s="553"/>
-      <c r="I41" s="554"/>
-      <c r="J41" s="555"/>
-      <c r="K41" s="555"/>
-      <c r="L41" s="556"/>
-      <c r="M41" s="556"/>
-      <c r="N41" s="556"/>
-      <c r="O41" s="556"/>
-      <c r="P41" s="554" t="s">
+      <c r="A41" s="524"/>
+      <c r="B41" s="520"/>
+      <c r="C41" s="520"/>
+      <c r="D41" s="521"/>
+      <c r="E41" s="521"/>
+      <c r="F41" s="521"/>
+      <c r="G41" s="521"/>
+      <c r="H41" s="521"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="533"/>
+      <c r="K41" s="533"/>
+      <c r="L41" s="531"/>
+      <c r="M41" s="531"/>
+      <c r="N41" s="531"/>
+      <c r="O41" s="531"/>
+      <c r="P41" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q41" s="556"/>
-      <c r="R41" s="556"/>
-      <c r="S41" s="556"/>
-      <c r="T41" s="556"/>
-      <c r="U41" s="556"/>
-      <c r="V41" s="556"/>
-      <c r="W41" s="556"/>
-      <c r="X41" s="556"/>
-      <c r="Y41" s="554"/>
-      <c r="Z41" s="557"/>
-      <c r="AA41" s="557"/>
-      <c r="AB41" s="557"/>
-      <c r="AC41" s="557"/>
-      <c r="AD41" s="557"/>
-      <c r="AE41" s="557"/>
-      <c r="AF41" s="557"/>
+      <c r="Q41" s="531"/>
+      <c r="R41" s="531"/>
+      <c r="S41" s="531"/>
+      <c r="T41" s="531"/>
+      <c r="U41" s="531"/>
+      <c r="V41" s="531"/>
+      <c r="W41" s="531"/>
+      <c r="X41" s="531"/>
+      <c r="Y41" s="186"/>
+      <c r="Z41" s="532"/>
+      <c r="AA41" s="532"/>
+      <c r="AB41" s="532"/>
+      <c r="AC41" s="532"/>
+      <c r="AD41" s="532"/>
+      <c r="AE41" s="532"/>
+      <c r="AF41" s="532"/>
     </row>
     <row r="42" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A42" s="472"/>
-      <c r="B42" s="552"/>
-      <c r="C42" s="552"/>
-      <c r="D42" s="553"/>
-      <c r="E42" s="553"/>
-      <c r="F42" s="553"/>
-      <c r="G42" s="553"/>
-      <c r="H42" s="553"/>
-      <c r="I42" s="554"/>
-      <c r="J42" s="555"/>
-      <c r="K42" s="555"/>
-      <c r="L42" s="556"/>
-      <c r="M42" s="556"/>
-      <c r="N42" s="556"/>
-      <c r="O42" s="556"/>
-      <c r="P42" s="554" t="s">
+      <c r="A42" s="524"/>
+      <c r="B42" s="520"/>
+      <c r="C42" s="520"/>
+      <c r="D42" s="521"/>
+      <c r="E42" s="521"/>
+      <c r="F42" s="521"/>
+      <c r="G42" s="521"/>
+      <c r="H42" s="521"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="533"/>
+      <c r="K42" s="533"/>
+      <c r="L42" s="531"/>
+      <c r="M42" s="531"/>
+      <c r="N42" s="531"/>
+      <c r="O42" s="531"/>
+      <c r="P42" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q42" s="556"/>
-      <c r="R42" s="556"/>
-      <c r="S42" s="556"/>
-      <c r="T42" s="556"/>
-      <c r="U42" s="556"/>
-      <c r="V42" s="556"/>
-      <c r="W42" s="556"/>
-      <c r="X42" s="556"/>
-      <c r="Y42" s="554"/>
-      <c r="Z42" s="557"/>
-      <c r="AA42" s="557"/>
-      <c r="AB42" s="557"/>
-      <c r="AC42" s="557"/>
-      <c r="AD42" s="557"/>
-      <c r="AE42" s="557"/>
-      <c r="AF42" s="557"/>
+      <c r="Q42" s="531"/>
+      <c r="R42" s="531"/>
+      <c r="S42" s="531"/>
+      <c r="T42" s="531"/>
+      <c r="U42" s="531"/>
+      <c r="V42" s="531"/>
+      <c r="W42" s="531"/>
+      <c r="X42" s="531"/>
+      <c r="Y42" s="186"/>
+      <c r="Z42" s="532"/>
+      <c r="AA42" s="532"/>
+      <c r="AB42" s="532"/>
+      <c r="AC42" s="532"/>
+      <c r="AD42" s="532"/>
+      <c r="AE42" s="532"/>
+      <c r="AF42" s="532"/>
     </row>
     <row r="43" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A43" s="472"/>
-      <c r="B43" s="552"/>
-      <c r="C43" s="552"/>
-      <c r="D43" s="553"/>
-      <c r="E43" s="553"/>
-      <c r="F43" s="553"/>
-      <c r="G43" s="553"/>
-      <c r="H43" s="553"/>
-      <c r="I43" s="554"/>
-      <c r="J43" s="555"/>
-      <c r="K43" s="555"/>
-      <c r="L43" s="556"/>
-      <c r="M43" s="556"/>
-      <c r="N43" s="556"/>
-      <c r="O43" s="556"/>
-      <c r="P43" s="554" t="s">
+      <c r="A43" s="524"/>
+      <c r="B43" s="520"/>
+      <c r="C43" s="520"/>
+      <c r="D43" s="521"/>
+      <c r="E43" s="521"/>
+      <c r="F43" s="521"/>
+      <c r="G43" s="521"/>
+      <c r="H43" s="521"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="533"/>
+      <c r="K43" s="533"/>
+      <c r="L43" s="531"/>
+      <c r="M43" s="531"/>
+      <c r="N43" s="531"/>
+      <c r="O43" s="531"/>
+      <c r="P43" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q43" s="556"/>
-      <c r="R43" s="556"/>
-      <c r="S43" s="556"/>
-      <c r="T43" s="556"/>
-      <c r="U43" s="556"/>
-      <c r="V43" s="556"/>
-      <c r="W43" s="556"/>
-      <c r="X43" s="556"/>
-      <c r="Y43" s="554"/>
-      <c r="Z43" s="557"/>
-      <c r="AA43" s="557"/>
-      <c r="AB43" s="557"/>
-      <c r="AC43" s="557"/>
-      <c r="AD43" s="557"/>
-      <c r="AE43" s="557"/>
-      <c r="AF43" s="557"/>
+      <c r="Q43" s="531"/>
+      <c r="R43" s="531"/>
+      <c r="S43" s="531"/>
+      <c r="T43" s="531"/>
+      <c r="U43" s="531"/>
+      <c r="V43" s="531"/>
+      <c r="W43" s="531"/>
+      <c r="X43" s="531"/>
+      <c r="Y43" s="186"/>
+      <c r="Z43" s="532"/>
+      <c r="AA43" s="532"/>
+      <c r="AB43" s="532"/>
+      <c r="AC43" s="532"/>
+      <c r="AD43" s="532"/>
+      <c r="AE43" s="532"/>
+      <c r="AF43" s="532"/>
     </row>
     <row r="44" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A44" s="472"/>
-      <c r="B44" s="552"/>
-      <c r="C44" s="552"/>
-      <c r="D44" s="553"/>
-      <c r="E44" s="553"/>
-      <c r="F44" s="553"/>
-      <c r="G44" s="553"/>
-      <c r="H44" s="553"/>
-      <c r="I44" s="554"/>
-      <c r="J44" s="555"/>
-      <c r="K44" s="555"/>
-      <c r="L44" s="556"/>
-      <c r="M44" s="556"/>
-      <c r="N44" s="556"/>
-      <c r="O44" s="556"/>
-      <c r="P44" s="554" t="s">
+      <c r="A44" s="524"/>
+      <c r="B44" s="520"/>
+      <c r="C44" s="520"/>
+      <c r="D44" s="521"/>
+      <c r="E44" s="521"/>
+      <c r="F44" s="521"/>
+      <c r="G44" s="521"/>
+      <c r="H44" s="521"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="533"/>
+      <c r="K44" s="533"/>
+      <c r="L44" s="531"/>
+      <c r="M44" s="531"/>
+      <c r="N44" s="531"/>
+      <c r="O44" s="531"/>
+      <c r="P44" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q44" s="556"/>
-      <c r="R44" s="556"/>
-      <c r="S44" s="556"/>
-      <c r="T44" s="556"/>
-      <c r="U44" s="556"/>
-      <c r="V44" s="556"/>
-      <c r="W44" s="556"/>
-      <c r="X44" s="556"/>
-      <c r="Y44" s="554"/>
-      <c r="Z44" s="557"/>
-      <c r="AA44" s="557"/>
-      <c r="AB44" s="557"/>
-      <c r="AC44" s="557"/>
-      <c r="AD44" s="557"/>
-      <c r="AE44" s="557"/>
-      <c r="AF44" s="557"/>
+      <c r="Q44" s="531"/>
+      <c r="R44" s="531"/>
+      <c r="S44" s="531"/>
+      <c r="T44" s="531"/>
+      <c r="U44" s="531"/>
+      <c r="V44" s="531"/>
+      <c r="W44" s="531"/>
+      <c r="X44" s="531"/>
+      <c r="Y44" s="186"/>
+      <c r="Z44" s="532"/>
+      <c r="AA44" s="532"/>
+      <c r="AB44" s="532"/>
+      <c r="AC44" s="532"/>
+      <c r="AD44" s="532"/>
+      <c r="AE44" s="532"/>
+      <c r="AF44" s="532"/>
     </row>
     <row r="45" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A45" s="472"/>
-      <c r="B45" s="552"/>
-      <c r="C45" s="552"/>
-      <c r="D45" s="553"/>
-      <c r="E45" s="553"/>
-      <c r="F45" s="553"/>
-      <c r="G45" s="553"/>
-      <c r="H45" s="553"/>
-      <c r="I45" s="554"/>
-      <c r="J45" s="555"/>
-      <c r="K45" s="555"/>
-      <c r="L45" s="556"/>
-      <c r="M45" s="556"/>
-      <c r="N45" s="556"/>
-      <c r="O45" s="556"/>
-      <c r="P45" s="554" t="s">
+      <c r="A45" s="524"/>
+      <c r="B45" s="520"/>
+      <c r="C45" s="520"/>
+      <c r="D45" s="521"/>
+      <c r="E45" s="521"/>
+      <c r="F45" s="521"/>
+      <c r="G45" s="521"/>
+      <c r="H45" s="521"/>
+      <c r="I45" s="186"/>
+      <c r="J45" s="533"/>
+      <c r="K45" s="533"/>
+      <c r="L45" s="531"/>
+      <c r="M45" s="531"/>
+      <c r="N45" s="531"/>
+      <c r="O45" s="531"/>
+      <c r="P45" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q45" s="556"/>
-      <c r="R45" s="556"/>
-      <c r="S45" s="556"/>
-      <c r="T45" s="556"/>
-      <c r="U45" s="556"/>
-      <c r="V45" s="556"/>
-      <c r="W45" s="556"/>
-      <c r="X45" s="556"/>
-      <c r="Y45" s="554"/>
-      <c r="Z45" s="557"/>
-      <c r="AA45" s="557"/>
-      <c r="AB45" s="557"/>
-      <c r="AC45" s="557"/>
-      <c r="AD45" s="557"/>
-      <c r="AE45" s="557"/>
-      <c r="AF45" s="557"/>
+      <c r="Q45" s="531"/>
+      <c r="R45" s="531"/>
+      <c r="S45" s="531"/>
+      <c r="T45" s="531"/>
+      <c r="U45" s="531"/>
+      <c r="V45" s="531"/>
+      <c r="W45" s="531"/>
+      <c r="X45" s="531"/>
+      <c r="Y45" s="186"/>
+      <c r="Z45" s="532"/>
+      <c r="AA45" s="532"/>
+      <c r="AB45" s="532"/>
+      <c r="AC45" s="532"/>
+      <c r="AD45" s="532"/>
+      <c r="AE45" s="532"/>
+      <c r="AF45" s="532"/>
     </row>
     <row r="46" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A46" s="472"/>
-      <c r="B46" s="552"/>
-      <c r="C46" s="552"/>
-      <c r="D46" s="553"/>
-      <c r="E46" s="553"/>
-      <c r="F46" s="553"/>
-      <c r="G46" s="553"/>
-      <c r="H46" s="553"/>
-      <c r="I46" s="554"/>
-      <c r="J46" s="555"/>
-      <c r="K46" s="555"/>
-      <c r="L46" s="556"/>
-      <c r="M46" s="556"/>
-      <c r="N46" s="556"/>
-      <c r="O46" s="556"/>
-      <c r="P46" s="554" t="s">
+      <c r="A46" s="524"/>
+      <c r="B46" s="520"/>
+      <c r="C46" s="520"/>
+      <c r="D46" s="521"/>
+      <c r="E46" s="521"/>
+      <c r="F46" s="521"/>
+      <c r="G46" s="521"/>
+      <c r="H46" s="521"/>
+      <c r="I46" s="186"/>
+      <c r="J46" s="533"/>
+      <c r="K46" s="533"/>
+      <c r="L46" s="531"/>
+      <c r="M46" s="531"/>
+      <c r="N46" s="531"/>
+      <c r="O46" s="531"/>
+      <c r="P46" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q46" s="556"/>
-      <c r="R46" s="556"/>
-      <c r="S46" s="556"/>
-      <c r="T46" s="556"/>
-      <c r="U46" s="556"/>
-      <c r="V46" s="556"/>
-      <c r="W46" s="556"/>
-      <c r="X46" s="556"/>
-      <c r="Y46" s="554"/>
-      <c r="Z46" s="557"/>
-      <c r="AA46" s="557"/>
-      <c r="AB46" s="557"/>
-      <c r="AC46" s="557"/>
-      <c r="AD46" s="557"/>
-      <c r="AE46" s="557"/>
-      <c r="AF46" s="557"/>
+      <c r="Q46" s="531"/>
+      <c r="R46" s="531"/>
+      <c r="S46" s="531"/>
+      <c r="T46" s="531"/>
+      <c r="U46" s="531"/>
+      <c r="V46" s="531"/>
+      <c r="W46" s="531"/>
+      <c r="X46" s="531"/>
+      <c r="Y46" s="186"/>
+      <c r="Z46" s="532"/>
+      <c r="AA46" s="532"/>
+      <c r="AB46" s="532"/>
+      <c r="AC46" s="532"/>
+      <c r="AD46" s="532"/>
+      <c r="AE46" s="532"/>
+      <c r="AF46" s="532"/>
     </row>
     <row r="47" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A47" s="472"/>
-      <c r="B47" s="552"/>
-      <c r="C47" s="552"/>
-      <c r="D47" s="553"/>
-      <c r="E47" s="553"/>
-      <c r="F47" s="553"/>
-      <c r="G47" s="553"/>
-      <c r="H47" s="553"/>
-      <c r="I47" s="554"/>
-      <c r="J47" s="555"/>
-      <c r="K47" s="555"/>
-      <c r="L47" s="556"/>
-      <c r="M47" s="556"/>
-      <c r="N47" s="556"/>
-      <c r="O47" s="556"/>
-      <c r="P47" s="554" t="s">
+      <c r="A47" s="524"/>
+      <c r="B47" s="520"/>
+      <c r="C47" s="520"/>
+      <c r="D47" s="521"/>
+      <c r="E47" s="521"/>
+      <c r="F47" s="521"/>
+      <c r="G47" s="521"/>
+      <c r="H47" s="521"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="533"/>
+      <c r="K47" s="533"/>
+      <c r="L47" s="531"/>
+      <c r="M47" s="531"/>
+      <c r="N47" s="531"/>
+      <c r="O47" s="531"/>
+      <c r="P47" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q47" s="556"/>
-      <c r="R47" s="556"/>
-      <c r="S47" s="556"/>
-      <c r="T47" s="556"/>
-      <c r="U47" s="556"/>
-      <c r="V47" s="556"/>
-      <c r="W47" s="556"/>
-      <c r="X47" s="556"/>
-      <c r="Y47" s="554"/>
-      <c r="Z47" s="557"/>
-      <c r="AA47" s="557"/>
-      <c r="AB47" s="557"/>
-      <c r="AC47" s="557"/>
-      <c r="AD47" s="557"/>
-      <c r="AE47" s="557"/>
-      <c r="AF47" s="557"/>
+      <c r="Q47" s="531"/>
+      <c r="R47" s="531"/>
+      <c r="S47" s="531"/>
+      <c r="T47" s="531"/>
+      <c r="U47" s="531"/>
+      <c r="V47" s="531"/>
+      <c r="W47" s="531"/>
+      <c r="X47" s="531"/>
+      <c r="Y47" s="186"/>
+      <c r="Z47" s="532"/>
+      <c r="AA47" s="532"/>
+      <c r="AB47" s="532"/>
+      <c r="AC47" s="532"/>
+      <c r="AD47" s="532"/>
+      <c r="AE47" s="532"/>
+      <c r="AF47" s="532"/>
     </row>
     <row r="48" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A48" s="472"/>
-      <c r="B48" s="552"/>
-      <c r="C48" s="552"/>
-      <c r="D48" s="553"/>
-      <c r="E48" s="553"/>
-      <c r="F48" s="553"/>
-      <c r="G48" s="553"/>
-      <c r="H48" s="553"/>
-      <c r="I48" s="554"/>
-      <c r="J48" s="555"/>
-      <c r="K48" s="555"/>
-      <c r="L48" s="556"/>
-      <c r="M48" s="556"/>
-      <c r="N48" s="556"/>
-      <c r="O48" s="556"/>
-      <c r="P48" s="554" t="s">
+      <c r="A48" s="524"/>
+      <c r="B48" s="520"/>
+      <c r="C48" s="520"/>
+      <c r="D48" s="521"/>
+      <c r="E48" s="521"/>
+      <c r="F48" s="521"/>
+      <c r="G48" s="521"/>
+      <c r="H48" s="521"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="533"/>
+      <c r="K48" s="533"/>
+      <c r="L48" s="531"/>
+      <c r="M48" s="531"/>
+      <c r="N48" s="531"/>
+      <c r="O48" s="531"/>
+      <c r="P48" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q48" s="556"/>
-      <c r="R48" s="556"/>
-      <c r="S48" s="556"/>
-      <c r="T48" s="556"/>
-      <c r="U48" s="556"/>
-      <c r="V48" s="556"/>
-      <c r="W48" s="556"/>
-      <c r="X48" s="556"/>
-      <c r="Y48" s="554"/>
-      <c r="Z48" s="557"/>
-      <c r="AA48" s="557"/>
-      <c r="AB48" s="557"/>
-      <c r="AC48" s="557"/>
-      <c r="AD48" s="557"/>
-      <c r="AE48" s="557"/>
-      <c r="AF48" s="557"/>
+      <c r="Q48" s="531"/>
+      <c r="R48" s="531"/>
+      <c r="S48" s="531"/>
+      <c r="T48" s="531"/>
+      <c r="U48" s="531"/>
+      <c r="V48" s="531"/>
+      <c r="W48" s="531"/>
+      <c r="X48" s="531"/>
+      <c r="Y48" s="186"/>
+      <c r="Z48" s="532"/>
+      <c r="AA48" s="532"/>
+      <c r="AB48" s="532"/>
+      <c r="AC48" s="532"/>
+      <c r="AD48" s="532"/>
+      <c r="AE48" s="532"/>
+      <c r="AF48" s="532"/>
     </row>
     <row r="49" spans="1:47" ht="25.5" customHeight="1">
-      <c r="A49" s="472"/>
-      <c r="B49" s="552"/>
-      <c r="C49" s="552"/>
-      <c r="D49" s="553"/>
-      <c r="E49" s="553"/>
-      <c r="F49" s="553"/>
-      <c r="G49" s="553"/>
-      <c r="H49" s="553"/>
-      <c r="I49" s="554"/>
-      <c r="J49" s="555"/>
-      <c r="K49" s="555"/>
-      <c r="L49" s="556"/>
-      <c r="M49" s="556"/>
-      <c r="N49" s="556"/>
-      <c r="O49" s="556"/>
-      <c r="P49" s="554" t="s">
+      <c r="A49" s="524"/>
+      <c r="B49" s="520"/>
+      <c r="C49" s="520"/>
+      <c r="D49" s="521"/>
+      <c r="E49" s="521"/>
+      <c r="F49" s="521"/>
+      <c r="G49" s="521"/>
+      <c r="H49" s="521"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="533"/>
+      <c r="K49" s="533"/>
+      <c r="L49" s="531"/>
+      <c r="M49" s="531"/>
+      <c r="N49" s="531"/>
+      <c r="O49" s="531"/>
+      <c r="P49" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q49" s="556"/>
-      <c r="R49" s="556"/>
-      <c r="S49" s="556"/>
-      <c r="T49" s="556"/>
-      <c r="U49" s="556"/>
-      <c r="V49" s="556"/>
-      <c r="W49" s="556"/>
-      <c r="X49" s="556"/>
-      <c r="Y49" s="554"/>
-      <c r="Z49" s="557"/>
-      <c r="AA49" s="557"/>
-      <c r="AB49" s="557"/>
-      <c r="AC49" s="557"/>
-      <c r="AD49" s="557"/>
-      <c r="AE49" s="557"/>
-      <c r="AF49" s="557"/>
+      <c r="Q49" s="531"/>
+      <c r="R49" s="531"/>
+      <c r="S49" s="531"/>
+      <c r="T49" s="531"/>
+      <c r="U49" s="531"/>
+      <c r="V49" s="531"/>
+      <c r="W49" s="531"/>
+      <c r="X49" s="531"/>
+      <c r="Y49" s="186"/>
+      <c r="Z49" s="532"/>
+      <c r="AA49" s="532"/>
+      <c r="AB49" s="532"/>
+      <c r="AC49" s="532"/>
+      <c r="AD49" s="532"/>
+      <c r="AE49" s="532"/>
+      <c r="AF49" s="532"/>
     </row>
     <row r="50" spans="1:47" ht="25.5" customHeight="1">
-      <c r="A50" s="472"/>
-      <c r="B50" s="552"/>
-      <c r="C50" s="552"/>
-      <c r="D50" s="553"/>
-      <c r="E50" s="553"/>
-      <c r="F50" s="553"/>
-      <c r="G50" s="553"/>
-      <c r="H50" s="553"/>
-      <c r="I50" s="554"/>
-      <c r="J50" s="555"/>
-      <c r="K50" s="555"/>
-      <c r="L50" s="556"/>
-      <c r="M50" s="556"/>
-      <c r="N50" s="556"/>
-      <c r="O50" s="556"/>
-      <c r="P50" s="554" t="s">
+      <c r="A50" s="524"/>
+      <c r="B50" s="520"/>
+      <c r="C50" s="520"/>
+      <c r="D50" s="521"/>
+      <c r="E50" s="521"/>
+      <c r="F50" s="521"/>
+      <c r="G50" s="521"/>
+      <c r="H50" s="521"/>
+      <c r="I50" s="186"/>
+      <c r="J50" s="533"/>
+      <c r="K50" s="533"/>
+      <c r="L50" s="531"/>
+      <c r="M50" s="531"/>
+      <c r="N50" s="531"/>
+      <c r="O50" s="531"/>
+      <c r="P50" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q50" s="556"/>
-      <c r="R50" s="556"/>
-      <c r="S50" s="556"/>
-      <c r="T50" s="556"/>
-      <c r="U50" s="556"/>
-      <c r="V50" s="556"/>
-      <c r="W50" s="556"/>
-      <c r="X50" s="556"/>
-      <c r="Y50" s="554"/>
-      <c r="Z50" s="557"/>
-      <c r="AA50" s="557"/>
-      <c r="AB50" s="557"/>
-      <c r="AC50" s="557"/>
-      <c r="AD50" s="557"/>
-      <c r="AE50" s="557"/>
-      <c r="AF50" s="557"/>
+      <c r="Q50" s="531"/>
+      <c r="R50" s="531"/>
+      <c r="S50" s="531"/>
+      <c r="T50" s="531"/>
+      <c r="U50" s="531"/>
+      <c r="V50" s="531"/>
+      <c r="W50" s="531"/>
+      <c r="X50" s="531"/>
+      <c r="Y50" s="186"/>
+      <c r="Z50" s="532"/>
+      <c r="AA50" s="532"/>
+      <c r="AB50" s="532"/>
+      <c r="AC50" s="532"/>
+      <c r="AD50" s="532"/>
+      <c r="AE50" s="532"/>
+      <c r="AF50" s="532"/>
     </row>
     <row r="51" spans="1:47" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A51" s="473"/>
-      <c r="B51" s="552"/>
-      <c r="C51" s="552"/>
-      <c r="D51" s="553"/>
-      <c r="E51" s="553"/>
-      <c r="F51" s="553"/>
-      <c r="G51" s="553"/>
-      <c r="H51" s="553"/>
-      <c r="I51" s="554"/>
-      <c r="J51" s="555"/>
-      <c r="K51" s="555"/>
-      <c r="L51" s="556"/>
-      <c r="M51" s="556"/>
-      <c r="N51" s="556"/>
-      <c r="O51" s="556"/>
-      <c r="P51" s="554" t="s">
+      <c r="A51" s="525"/>
+      <c r="B51" s="520"/>
+      <c r="C51" s="520"/>
+      <c r="D51" s="521"/>
+      <c r="E51" s="521"/>
+      <c r="F51" s="521"/>
+      <c r="G51" s="521"/>
+      <c r="H51" s="521"/>
+      <c r="I51" s="186"/>
+      <c r="J51" s="533"/>
+      <c r="K51" s="533"/>
+      <c r="L51" s="531"/>
+      <c r="M51" s="531"/>
+      <c r="N51" s="531"/>
+      <c r="O51" s="531"/>
+      <c r="P51" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="Q51" s="556"/>
-      <c r="R51" s="556"/>
-      <c r="S51" s="556"/>
-      <c r="T51" s="556"/>
-      <c r="U51" s="556"/>
-      <c r="V51" s="556"/>
-      <c r="W51" s="556"/>
-      <c r="X51" s="556"/>
-      <c r="Y51" s="554"/>
-      <c r="Z51" s="557"/>
-      <c r="AA51" s="557"/>
-      <c r="AB51" s="557"/>
-      <c r="AC51" s="557"/>
-      <c r="AD51" s="557"/>
-      <c r="AE51" s="557"/>
-      <c r="AF51" s="557"/>
+      <c r="Q51" s="531"/>
+      <c r="R51" s="531"/>
+      <c r="S51" s="531"/>
+      <c r="T51" s="531"/>
+      <c r="U51" s="531"/>
+      <c r="V51" s="531"/>
+      <c r="W51" s="531"/>
+      <c r="X51" s="531"/>
+      <c r="Y51" s="186"/>
+      <c r="Z51" s="532"/>
+      <c r="AA51" s="532"/>
+      <c r="AB51" s="532"/>
+      <c r="AC51" s="532"/>
+      <c r="AD51" s="532"/>
+      <c r="AE51" s="532"/>
+      <c r="AF51" s="532"/>
     </row>
     <row r="52" spans="1:47" ht="22" customHeight="1">
-      <c r="A52" s="344" t="s">
+      <c r="A52" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="397"/>
-      <c r="C52" s="397"/>
-      <c r="D52" s="550" t="s">
+      <c r="B52" s="260"/>
+      <c r="C52" s="260"/>
+      <c r="D52" s="539" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="550"/>
-      <c r="F52" s="550"/>
-      <c r="G52" s="550"/>
-      <c r="H52" s="550"/>
-      <c r="I52" s="550"/>
-      <c r="J52" s="550"/>
-      <c r="K52" s="550"/>
-      <c r="L52" s="550"/>
-      <c r="M52" s="550"/>
-      <c r="N52" s="550"/>
-      <c r="O52" s="550"/>
-      <c r="P52" s="550"/>
-      <c r="Q52" s="550"/>
-      <c r="R52" s="550"/>
-      <c r="S52" s="550"/>
-      <c r="T52" s="550"/>
-      <c r="U52" s="550"/>
-      <c r="V52" s="550"/>
-      <c r="W52" s="550"/>
-      <c r="X52" s="550"/>
-      <c r="Y52" s="550"/>
-      <c r="Z52" s="550"/>
-      <c r="AA52" s="550"/>
-      <c r="AB52" s="550"/>
-      <c r="AC52" s="550"/>
-      <c r="AD52" s="550"/>
-      <c r="AE52" s="550"/>
-      <c r="AF52" s="551"/>
+      <c r="E52" s="539"/>
+      <c r="F52" s="539"/>
+      <c r="G52" s="539"/>
+      <c r="H52" s="539"/>
+      <c r="I52" s="539"/>
+      <c r="J52" s="539"/>
+      <c r="K52" s="539"/>
+      <c r="L52" s="539"/>
+      <c r="M52" s="539"/>
+      <c r="N52" s="539"/>
+      <c r="O52" s="539"/>
+      <c r="P52" s="539"/>
+      <c r="Q52" s="539"/>
+      <c r="R52" s="539"/>
+      <c r="S52" s="539"/>
+      <c r="T52" s="539"/>
+      <c r="U52" s="539"/>
+      <c r="V52" s="539"/>
+      <c r="W52" s="539"/>
+      <c r="X52" s="539"/>
+      <c r="Y52" s="539"/>
+      <c r="Z52" s="539"/>
+      <c r="AA52" s="539"/>
+      <c r="AB52" s="539"/>
+      <c r="AC52" s="539"/>
+      <c r="AD52" s="539"/>
+      <c r="AE52" s="539"/>
+      <c r="AF52" s="540"/>
     </row>
     <row r="53" spans="1:47" ht="18.75" customHeight="1">
       <c r="A53" s="37"/>
@@ -14111,76 +14114,76 @@
       <c r="AF53" s="36"/>
     </row>
     <row r="54" spans="1:47" ht="20" customHeight="1">
-      <c r="A54" s="459" t="s">
+      <c r="A54" s="541" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="460"/>
-      <c r="C54" s="460"/>
-      <c r="D54" s="460"/>
-      <c r="E54" s="460"/>
-      <c r="F54" s="460"/>
-      <c r="G54" s="461"/>
-      <c r="H54" s="461"/>
-      <c r="I54" s="461"/>
-      <c r="J54" s="461"/>
-      <c r="K54" s="461"/>
-      <c r="L54" s="461"/>
-      <c r="M54" s="461"/>
-      <c r="N54" s="461"/>
-      <c r="O54" s="461"/>
-      <c r="P54" s="461"/>
-      <c r="Q54" s="461"/>
-      <c r="R54" s="461"/>
-      <c r="S54" s="461"/>
-      <c r="T54" s="461"/>
-      <c r="U54" s="461"/>
-      <c r="V54" s="461"/>
-      <c r="W54" s="461"/>
-      <c r="X54" s="461"/>
-      <c r="Y54" s="461"/>
-      <c r="Z54" s="461"/>
-      <c r="AA54" s="461"/>
-      <c r="AB54" s="461"/>
-      <c r="AC54" s="461"/>
-      <c r="AD54" s="461"/>
-      <c r="AE54" s="461"/>
-      <c r="AF54" s="462"/>
+      <c r="B54" s="542"/>
+      <c r="C54" s="542"/>
+      <c r="D54" s="542"/>
+      <c r="E54" s="542"/>
+      <c r="F54" s="542"/>
+      <c r="G54" s="543"/>
+      <c r="H54" s="543"/>
+      <c r="I54" s="543"/>
+      <c r="J54" s="543"/>
+      <c r="K54" s="543"/>
+      <c r="L54" s="543"/>
+      <c r="M54" s="543"/>
+      <c r="N54" s="543"/>
+      <c r="O54" s="543"/>
+      <c r="P54" s="543"/>
+      <c r="Q54" s="543"/>
+      <c r="R54" s="543"/>
+      <c r="S54" s="543"/>
+      <c r="T54" s="543"/>
+      <c r="U54" s="543"/>
+      <c r="V54" s="543"/>
+      <c r="W54" s="543"/>
+      <c r="X54" s="543"/>
+      <c r="Y54" s="543"/>
+      <c r="Z54" s="543"/>
+      <c r="AA54" s="543"/>
+      <c r="AB54" s="543"/>
+      <c r="AC54" s="543"/>
+      <c r="AD54" s="543"/>
+      <c r="AE54" s="543"/>
+      <c r="AF54" s="544"/>
     </row>
     <row r="55" spans="1:47" ht="20" customHeight="1" thickBot="1">
-      <c r="A55" s="463" t="s">
+      <c r="A55" s="545" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="464"/>
-      <c r="C55" s="464"/>
-      <c r="D55" s="464"/>
-      <c r="E55" s="464"/>
-      <c r="F55" s="464"/>
-      <c r="G55" s="465"/>
-      <c r="H55" s="465"/>
-      <c r="I55" s="465"/>
-      <c r="J55" s="465"/>
-      <c r="K55" s="465"/>
-      <c r="L55" s="465"/>
-      <c r="M55" s="465"/>
-      <c r="N55" s="465"/>
-      <c r="O55" s="465"/>
-      <c r="P55" s="465"/>
-      <c r="Q55" s="465"/>
-      <c r="R55" s="465"/>
-      <c r="S55" s="465"/>
-      <c r="T55" s="465"/>
-      <c r="U55" s="465"/>
-      <c r="V55" s="465"/>
-      <c r="W55" s="465"/>
-      <c r="X55" s="465"/>
-      <c r="Y55" s="465"/>
-      <c r="Z55" s="465"/>
-      <c r="AA55" s="465"/>
-      <c r="AB55" s="465"/>
-      <c r="AC55" s="465"/>
-      <c r="AD55" s="465"/>
-      <c r="AE55" s="465"/>
-      <c r="AF55" s="466"/>
+      <c r="B55" s="546"/>
+      <c r="C55" s="546"/>
+      <c r="D55" s="546"/>
+      <c r="E55" s="546"/>
+      <c r="F55" s="546"/>
+      <c r="G55" s="547"/>
+      <c r="H55" s="547"/>
+      <c r="I55" s="547"/>
+      <c r="J55" s="547"/>
+      <c r="K55" s="547"/>
+      <c r="L55" s="547"/>
+      <c r="M55" s="547"/>
+      <c r="N55" s="547"/>
+      <c r="O55" s="547"/>
+      <c r="P55" s="547"/>
+      <c r="Q55" s="547"/>
+      <c r="R55" s="547"/>
+      <c r="S55" s="547"/>
+      <c r="T55" s="547"/>
+      <c r="U55" s="547"/>
+      <c r="V55" s="547"/>
+      <c r="W55" s="547"/>
+      <c r="X55" s="547"/>
+      <c r="Y55" s="547"/>
+      <c r="Z55" s="547"/>
+      <c r="AA55" s="547"/>
+      <c r="AB55" s="547"/>
+      <c r="AC55" s="547"/>
+      <c r="AD55" s="547"/>
+      <c r="AE55" s="547"/>
+      <c r="AF55" s="548"/>
     </row>
     <row r="56" spans="1:47" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A56" s="5"/>
@@ -14217,11 +14220,11 @@
       <c r="AF56" s="9"/>
     </row>
     <row r="57" spans="1:47" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A57" s="307" t="s">
+      <c r="A57" s="385" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="307"/>
-      <c r="C57" s="307"/>
+      <c r="B57" s="385"/>
+      <c r="C57" s="385"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -14618,40 +14621,40 @@
       <c r="X69" s="11"/>
     </row>
     <row r="70" spans="1:32" ht="20" customHeight="1" thickBot="1">
-      <c r="A70" s="455" t="s">
+      <c r="A70" s="534" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="456"/>
-      <c r="C70" s="456"/>
-      <c r="D70" s="456"/>
-      <c r="E70" s="456"/>
-      <c r="F70" s="456"/>
-      <c r="G70" s="456"/>
-      <c r="H70" s="456"/>
-      <c r="I70" s="456"/>
-      <c r="J70" s="456"/>
-      <c r="K70" s="456"/>
-      <c r="L70" s="456"/>
-      <c r="M70" s="456"/>
-      <c r="N70" s="456"/>
-      <c r="O70" s="456"/>
-      <c r="P70" s="456"/>
-      <c r="Q70" s="456"/>
-      <c r="R70" s="456"/>
-      <c r="S70" s="456"/>
-      <c r="T70" s="456"/>
-      <c r="U70" s="456"/>
-      <c r="V70" s="456"/>
-      <c r="W70" s="456"/>
-      <c r="X70" s="456"/>
-      <c r="Y70" s="456"/>
-      <c r="Z70" s="456"/>
-      <c r="AA70" s="456"/>
-      <c r="AB70" s="456"/>
-      <c r="AC70" s="456"/>
-      <c r="AD70" s="456"/>
-      <c r="AE70" s="456"/>
-      <c r="AF70" s="457"/>
+      <c r="B70" s="535"/>
+      <c r="C70" s="535"/>
+      <c r="D70" s="535"/>
+      <c r="E70" s="535"/>
+      <c r="F70" s="535"/>
+      <c r="G70" s="535"/>
+      <c r="H70" s="535"/>
+      <c r="I70" s="535"/>
+      <c r="J70" s="535"/>
+      <c r="K70" s="535"/>
+      <c r="L70" s="535"/>
+      <c r="M70" s="535"/>
+      <c r="N70" s="535"/>
+      <c r="O70" s="535"/>
+      <c r="P70" s="535"/>
+      <c r="Q70" s="535"/>
+      <c r="R70" s="535"/>
+      <c r="S70" s="535"/>
+      <c r="T70" s="535"/>
+      <c r="U70" s="535"/>
+      <c r="V70" s="535"/>
+      <c r="W70" s="535"/>
+      <c r="X70" s="535"/>
+      <c r="Y70" s="535"/>
+      <c r="Z70" s="535"/>
+      <c r="AA70" s="535"/>
+      <c r="AB70" s="535"/>
+      <c r="AC70" s="535"/>
+      <c r="AD70" s="535"/>
+      <c r="AE70" s="535"/>
+      <c r="AF70" s="536"/>
     </row>
     <row r="71" spans="1:32" ht="9" customHeight="1" thickTop="1">
       <c r="A71" s="94"/>
@@ -14704,19 +14707,19 @@
       <c r="Q72" s="96"/>
       <c r="R72" s="96"/>
       <c r="S72" s="96"/>
-      <c r="T72" s="446" t="s">
+      <c r="T72" s="537" t="s">
         <v>122</v>
       </c>
-      <c r="U72" s="446"/>
-      <c r="V72" s="446"/>
+      <c r="U72" s="537"/>
+      <c r="V72" s="537"/>
       <c r="W72" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="X72" s="444"/>
-      <c r="Y72" s="444"/>
-      <c r="Z72" s="444"/>
-      <c r="AA72" s="444"/>
-      <c r="AB72" s="444"/>
+      <c r="X72" s="549"/>
+      <c r="Y72" s="549"/>
+      <c r="Z72" s="549"/>
+      <c r="AA72" s="549"/>
+      <c r="AB72" s="549"/>
       <c r="AC72" s="180" t="s">
         <v>190</v>
       </c>
@@ -14736,10 +14739,10 @@
       <c r="E73" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="F73" s="458"/>
-      <c r="G73" s="458"/>
-      <c r="H73" s="458"/>
-      <c r="I73" s="458"/>
+      <c r="F73" s="538"/>
+      <c r="G73" s="538"/>
+      <c r="H73" s="538"/>
+      <c r="I73" s="538"/>
       <c r="J73" s="169" t="s">
         <v>84</v>
       </c>
@@ -14747,10 +14750,10 @@
       <c r="L73" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="M73" s="458"/>
-      <c r="N73" s="458"/>
-      <c r="O73" s="458"/>
-      <c r="P73" s="458"/>
+      <c r="M73" s="538"/>
+      <c r="N73" s="538"/>
+      <c r="O73" s="538"/>
+      <c r="P73" s="538"/>
       <c r="Q73" s="99" t="s">
         <v>83</v>
       </c>
@@ -14758,19 +14761,19 @@
         <v>45</v>
       </c>
       <c r="S73" s="96"/>
-      <c r="T73" s="446" t="s">
+      <c r="T73" s="537" t="s">
         <v>123</v>
       </c>
-      <c r="U73" s="446"/>
-      <c r="V73" s="446"/>
+      <c r="U73" s="537"/>
+      <c r="V73" s="537"/>
       <c r="W73" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="X73" s="444"/>
-      <c r="Y73" s="444"/>
-      <c r="Z73" s="444"/>
-      <c r="AA73" s="444"/>
-      <c r="AB73" s="444"/>
+      <c r="X73" s="549"/>
+      <c r="Y73" s="549"/>
+      <c r="Z73" s="549"/>
+      <c r="AA73" s="549"/>
+      <c r="AB73" s="549"/>
       <c r="AC73" s="90" t="s">
         <v>190</v>
       </c>
@@ -14810,19 +14813,19 @@
       <c r="Q74" s="96"/>
       <c r="R74" s="96"/>
       <c r="S74" s="96"/>
-      <c r="T74" s="446" t="s">
+      <c r="T74" s="537" t="s">
         <v>124</v>
       </c>
-      <c r="U74" s="446"/>
-      <c r="V74" s="446"/>
+      <c r="U74" s="537"/>
+      <c r="V74" s="537"/>
       <c r="W74" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="X74" s="444"/>
-      <c r="Y74" s="444"/>
-      <c r="Z74" s="444"/>
-      <c r="AA74" s="444"/>
-      <c r="AB74" s="444"/>
+      <c r="X74" s="549"/>
+      <c r="Y74" s="549"/>
+      <c r="Z74" s="549"/>
+      <c r="AA74" s="549"/>
+      <c r="AB74" s="549"/>
       <c r="AC74" s="90" t="s">
         <v>190</v>
       </c>
@@ -14841,12 +14844,12 @@
       <c r="D75" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="445"/>
-      <c r="F75" s="445"/>
-      <c r="G75" s="445"/>
-      <c r="H75" s="445"/>
-      <c r="I75" s="445"/>
-      <c r="J75" s="445"/>
+      <c r="E75" s="550"/>
+      <c r="F75" s="550"/>
+      <c r="G75" s="550"/>
+      <c r="H75" s="550"/>
+      <c r="I75" s="550"/>
+      <c r="J75" s="550"/>
       <c r="K75" s="167"/>
       <c r="L75" s="167" t="s">
         <v>45</v>
@@ -14858,19 +14861,19 @@
       <c r="Q75" s="101"/>
       <c r="R75" s="101"/>
       <c r="S75" s="101"/>
-      <c r="T75" s="447" t="s">
+      <c r="T75" s="551" t="s">
         <v>125</v>
       </c>
-      <c r="U75" s="447"/>
-      <c r="V75" s="447"/>
+      <c r="U75" s="551"/>
+      <c r="V75" s="551"/>
       <c r="W75" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="X75" s="445"/>
-      <c r="Y75" s="445"/>
-      <c r="Z75" s="445"/>
-      <c r="AA75" s="445"/>
-      <c r="AB75" s="445"/>
+      <c r="X75" s="550"/>
+      <c r="Y75" s="550"/>
+      <c r="Z75" s="550"/>
+      <c r="AA75" s="550"/>
+      <c r="AB75" s="550"/>
       <c r="AC75" s="88" t="s">
         <v>190</v>
       </c>
@@ -14955,6 +14958,223 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="241">
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="X75:AB75"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:T36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="Z48:AF48"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Z42:AF42"/>
+    <mergeCell ref="U35:X36"/>
+    <mergeCell ref="Z35:AF35"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A70:AF70"/>
+    <mergeCell ref="T72:V72"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="T73:V73"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:AF52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:AF54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:AF55"/>
+    <mergeCell ref="X72:AB72"/>
+    <mergeCell ref="X73:AB73"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="Z51:AF51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="Z50:AF50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Z49:AF49"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="Z46:AF46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="U47:X47"/>
+    <mergeCell ref="Z47:AF47"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="Z45:AF45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Z44:AF44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="Z38:AF38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="Z43:AF43"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="Z40:AF40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="Z41:AF41"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="Z36:AF36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="Z34:AE34"/>
+    <mergeCell ref="A35:A51"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:T35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="A31:D33"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:AF32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="W33:AF33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="AB27:AF28"/>
+    <mergeCell ref="H28:Q28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="H29:Q29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AF30"/>
+    <mergeCell ref="H30:X30"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:AF26"/>
+    <mergeCell ref="A27:D30"/>
+    <mergeCell ref="E27:F30"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:Q27"/>
+    <mergeCell ref="R27:S29"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:Z30"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="D24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AF24"/>
+    <mergeCell ref="C25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:AF23"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="AA5:AF5"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AF7"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:AF21"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="AD18:AE18"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="Z2:Z3"/>
@@ -14979,223 +15199,6 @@
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AF5"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="AA6:AF6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AF7"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:AF21"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="D24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:AF24"/>
-    <mergeCell ref="C25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:AF23"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="A27:D30"/>
-    <mergeCell ref="E27:F30"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:Q27"/>
-    <mergeCell ref="R27:S29"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:Z30"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="AB27:AF28"/>
-    <mergeCell ref="H28:Q28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="H29:Q29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AF30"/>
-    <mergeCell ref="H30:X30"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:AF26"/>
-    <mergeCell ref="A31:D33"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:AF32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="W33:AF33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="Z36:AF36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="Z34:AE34"/>
-    <mergeCell ref="A35:A51"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:T35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Z38:AF38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="Z43:AF43"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Z40:AF40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="Z41:AF41"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="Z45:AF45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Z44:AF44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Z49:AF49"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="Z46:AF46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="Z47:AF47"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="Z51:AF51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="Z50:AF50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A70:AF70"/>
-    <mergeCell ref="T72:V72"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="T73:V73"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:AF52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:AF54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:AF55"/>
-    <mergeCell ref="X72:AB72"/>
-    <mergeCell ref="X73:AB73"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="X75:AB75"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:T36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="U48:X48"/>
-    <mergeCell ref="Z48:AF48"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Z42:AF42"/>
-    <mergeCell ref="U35:X36"/>
-    <mergeCell ref="Z35:AF35"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="11">
